--- a/raw_data/20200818_saline/20200818_Sensor2_Test_34.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_34.xlsx
@@ -1,1172 +1,1588 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61B5623-E66D-4347-B6CF-B47B714431D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>30074.083373</v>
+        <v>30074.083373000001</v>
       </c>
       <c r="B2" s="1">
-        <v>8.353912</v>
+        <v>8.3539119999999993</v>
       </c>
       <c r="C2" s="1">
-        <v>1248.150000</v>
+        <v>1248.1500000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-308.587000</v>
+        <v>-308.58699999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>30084.452270</v>
+        <v>30084.452270000002</v>
       </c>
       <c r="G2" s="1">
-        <v>8.356792</v>
+        <v>8.3567920000000004</v>
       </c>
       <c r="H2" s="1">
-        <v>1272.390000</v>
+        <v>1272.3900000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-266.461000</v>
+        <v>-266.46100000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>30095.222865</v>
       </c>
       <c r="L2" s="1">
-        <v>8.359784</v>
+        <v>8.3597839999999994</v>
       </c>
       <c r="M2" s="1">
-        <v>1307.890000</v>
+        <v>1307.8900000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-203.638000</v>
+        <v>-203.63800000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>30105.734084</v>
       </c>
       <c r="Q2" s="1">
-        <v>8.362704</v>
+        <v>8.3627040000000008</v>
       </c>
       <c r="R2" s="1">
-        <v>1320.070000</v>
+        <v>1320.07</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.834000</v>
+        <v>-184.834</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>30116.079143</v>
+        <v>30116.079142999999</v>
       </c>
       <c r="V2" s="1">
-        <v>8.365578</v>
+        <v>8.3655779999999993</v>
       </c>
       <c r="W2" s="1">
-        <v>1332.970000</v>
+        <v>1332.97</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.158000</v>
+        <v>-171.15799999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>30126.231890</v>
+        <v>30126.231889999999</v>
       </c>
       <c r="AA2" s="1">
-        <v>8.368398</v>
+        <v>8.3683979999999991</v>
       </c>
       <c r="AB2" s="1">
-        <v>1349.990000</v>
+        <v>1349.99</v>
       </c>
       <c r="AC2" s="1">
-        <v>-168.969000</v>
+        <v>-168.96899999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>30136.462266</v>
+        <v>30136.462265999999</v>
       </c>
       <c r="AF2" s="1">
-        <v>8.371240</v>
+        <v>8.3712400000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>1362.860000</v>
+        <v>1362.86</v>
       </c>
       <c r="AH2" s="1">
-        <v>-178.551000</v>
+        <v>-178.55099999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>30146.543422</v>
+        <v>30146.543421999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>8.374040</v>
+        <v>8.3740400000000008</v>
       </c>
       <c r="AL2" s="1">
-        <v>1383.420000</v>
+        <v>1383.42</v>
       </c>
       <c r="AM2" s="1">
-        <v>-208.390000</v>
+        <v>-208.39</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>30156.812096</v>
+        <v>30156.812096000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>8.376892</v>
+        <v>8.3768919999999998</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1405.040000</v>
+        <v>1405.04</v>
       </c>
       <c r="AR2" s="1">
-        <v>-252.184000</v>
+        <v>-252.184</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>30167.750401</v>
+        <v>30167.750401000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>8.379931</v>
+        <v>8.3799309999999991</v>
       </c>
       <c r="AV2" s="1">
-        <v>1429.560000</v>
+        <v>1429.56</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.115000</v>
+        <v>-312.11500000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>30178.577044</v>
+        <v>30178.577044000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>8.382938</v>
+        <v>8.3829379999999993</v>
       </c>
       <c r="BA2" s="1">
-        <v>1448.840000</v>
+        <v>1448.84</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.185000</v>
+        <v>-364.185</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>30189.502948</v>
+        <v>30189.502948000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>8.385973</v>
+        <v>8.3859729999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1533.890000</v>
+        <v>1533.89</v>
       </c>
       <c r="BG2" s="1">
-        <v>-612.242000</v>
+        <v>-612.24199999999996</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>30200.985301</v>
+        <v>30200.985301000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>8.389163</v>
+        <v>8.3891629999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1687.620000</v>
+        <v>1687.62</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1057.330000</v>
+        <v>-1057.33</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>30212.457766</v>
       </c>
       <c r="BO2" s="1">
-        <v>8.392349</v>
+        <v>8.3923489999999994</v>
       </c>
       <c r="BP2" s="1">
-        <v>1981.400000</v>
+        <v>1981.4</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1828.870000</v>
+        <v>-1828.87</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>30223.195657</v>
       </c>
       <c r="BT2" s="1">
-        <v>8.395332</v>
+        <v>8.3953319999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>2369.700000</v>
+        <v>2369.6999999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2722.140000</v>
+        <v>-2722.14</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>30234.243049</v>
+        <v>30234.243049000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>8.398401</v>
+        <v>8.3984009999999998</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2851.350000</v>
+        <v>2851.35</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3693.890000</v>
+        <v>-3693.89</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>30245.172892</v>
+        <v>30245.172891999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>8.401437</v>
+        <v>8.4014369999999996</v>
       </c>
       <c r="CE2" s="1">
-        <v>4277.770000</v>
+        <v>4277.7700000000004</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6029.930000</v>
+        <v>-6029.93</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>30074.429612</v>
       </c>
       <c r="B3" s="1">
-        <v>8.354008</v>
+        <v>8.3540080000000003</v>
       </c>
       <c r="C3" s="1">
-        <v>1248.220000</v>
+        <v>1248.22</v>
       </c>
       <c r="D3" s="1">
-        <v>-308.649000</v>
+        <v>-308.649</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>30085.111951</v>
+        <v>30085.111950999999</v>
       </c>
       <c r="G3" s="1">
-        <v>8.356976</v>
+        <v>8.3569759999999995</v>
       </c>
       <c r="H3" s="1">
-        <v>1272.970000</v>
+        <v>1272.97</v>
       </c>
       <c r="I3" s="1">
-        <v>-266.641000</v>
+        <v>-266.64100000000002</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>30095.643970</v>
+        <v>30095.643970000001</v>
       </c>
       <c r="L3" s="1">
-        <v>8.359901</v>
+        <v>8.3599010000000007</v>
       </c>
       <c r="M3" s="1">
-        <v>1308.350000</v>
+        <v>1308.3499999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-203.016000</v>
+        <v>-203.01599999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>30106.143284</v>
+        <v>30106.143284000002</v>
       </c>
       <c r="Q3" s="1">
-        <v>8.362818</v>
+        <v>8.3628180000000008</v>
       </c>
       <c r="R3" s="1">
-        <v>1319.980000</v>
+        <v>1319.98</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.985000</v>
+        <v>-184.98500000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>30116.426341</v>
+        <v>30116.426340999999</v>
       </c>
       <c r="V3" s="1">
-        <v>8.365674</v>
+        <v>8.3656740000000003</v>
       </c>
       <c r="W3" s="1">
-        <v>1332.950000</v>
+        <v>1332.95</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.114000</v>
+        <v>-171.114</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>30126.580935</v>
+        <v>30126.580935000002</v>
       </c>
       <c r="AA3" s="1">
-        <v>8.368495</v>
+        <v>8.3684949999999994</v>
       </c>
       <c r="AB3" s="1">
-        <v>1350.130000</v>
+        <v>1350.13</v>
       </c>
       <c r="AC3" s="1">
-        <v>-168.854000</v>
+        <v>-168.85400000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>30136.801994</v>
+        <v>30136.801994000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>8.371334</v>
+        <v>8.3713339999999992</v>
       </c>
       <c r="AG3" s="1">
-        <v>1362.950000</v>
+        <v>1362.95</v>
       </c>
       <c r="AH3" s="1">
-        <v>-178.593000</v>
+        <v>-178.59299999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>30146.960557</v>
+        <v>30146.960556999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>8.374156</v>
+        <v>8.3741559999999993</v>
       </c>
       <c r="AL3" s="1">
-        <v>1383.430000</v>
+        <v>1383.43</v>
       </c>
       <c r="AM3" s="1">
-        <v>-208.393000</v>
+        <v>-208.393</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>30157.241631</v>
+        <v>30157.241631000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>8.377012</v>
+        <v>8.3770120000000006</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1405.020000</v>
+        <v>1405.02</v>
       </c>
       <c r="AR3" s="1">
-        <v>-252.206000</v>
+        <v>-252.20599999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>30167.861677</v>
+        <v>30167.861677000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>8.379962</v>
+        <v>8.3799620000000008</v>
       </c>
       <c r="AV3" s="1">
-        <v>1429.540000</v>
+        <v>1429.54</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.089000</v>
+        <v>-312.089</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>30178.934685</v>
       </c>
       <c r="AZ3" s="1">
-        <v>8.383037</v>
+        <v>8.3830369999999998</v>
       </c>
       <c r="BA3" s="1">
-        <v>1448.850000</v>
+        <v>1448.85</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.121000</v>
+        <v>-364.12099999999998</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>30189.875411</v>
+        <v>30189.875411000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>8.386077</v>
+        <v>8.3860770000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1533.830000</v>
+        <v>1533.83</v>
       </c>
       <c r="BG3" s="1">
-        <v>-612.305000</v>
+        <v>-612.30499999999995</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>30201.372709</v>
+        <v>30201.372708999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>8.389270</v>
+        <v>8.3892699999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1687.560000</v>
+        <v>1687.56</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1057.340000</v>
+        <v>-1057.3399999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>30212.876918</v>
+        <v>30212.876918000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>8.392466</v>
+        <v>8.3924660000000006</v>
       </c>
       <c r="BP3" s="1">
-        <v>1981.160000</v>
+        <v>1981.16</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1829.020000</v>
+        <v>-1829.02</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>30223.709049</v>
+        <v>30223.709049000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>8.395475</v>
+        <v>8.3954749999999994</v>
       </c>
       <c r="BU3" s="1">
-        <v>2369.380000</v>
+        <v>2369.38</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2722.650000</v>
+        <v>-2722.65</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>30234.710313</v>
       </c>
       <c r="BY3" s="1">
-        <v>8.398531</v>
+        <v>8.3985310000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2850.940000</v>
+        <v>2850.94</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3693.610000</v>
+        <v>-3693.61</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>30245.739850</v>
+        <v>30245.739850000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>8.401594</v>
+        <v>8.4015939999999993</v>
       </c>
       <c r="CE3" s="1">
-        <v>4277.610000</v>
+        <v>4277.6099999999997</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6033.750000</v>
+        <v>-6033.75</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>30075.103148</v>
+        <v>30075.103147999998</v>
       </c>
       <c r="B4" s="1">
-        <v>8.354195</v>
+        <v>8.3541950000000007</v>
       </c>
       <c r="C4" s="1">
-        <v>1247.830000</v>
+        <v>1247.83</v>
       </c>
       <c r="D4" s="1">
-        <v>-308.746000</v>
+        <v>-308.74599999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>30085.483449</v>
+        <v>30085.483448999999</v>
       </c>
       <c r="G4" s="1">
-        <v>8.357079</v>
+        <v>8.3570790000000006</v>
       </c>
       <c r="H4" s="1">
-        <v>1272.510000</v>
+        <v>1272.51</v>
       </c>
       <c r="I4" s="1">
-        <v>-266.220000</v>
+        <v>-266.22000000000003</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>30095.988225</v>
+        <v>30095.988225000001</v>
       </c>
       <c r="L4" s="1">
-        <v>8.359997</v>
+        <v>8.3599969999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1308.200000</v>
+        <v>1308.2</v>
       </c>
       <c r="N4" s="1">
-        <v>-202.774000</v>
+        <v>-202.774</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>30106.491971</v>
+        <v>30106.491970999999</v>
       </c>
       <c r="Q4" s="1">
         <v>8.362914</v>
       </c>
       <c r="R4" s="1">
-        <v>1319.970000</v>
+        <v>1319.97</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.948000</v>
+        <v>-184.94800000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>30116.769574</v>
+        <v>30116.769574000002</v>
       </c>
       <c r="V4" s="1">
-        <v>8.365769</v>
+        <v>8.3657690000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>1333.000000</v>
+        <v>1333</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.080000</v>
+        <v>-171.08</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>30126.929163</v>
+        <v>30126.929163000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>8.368591</v>
+        <v>8.3685910000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>1350.030000</v>
+        <v>1350.03</v>
       </c>
       <c r="AC4" s="1">
-        <v>-168.974000</v>
+        <v>-168.97399999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>30137.224586</v>
       </c>
       <c r="AF4" s="1">
-        <v>8.371451</v>
+        <v>8.3714510000000004</v>
       </c>
       <c r="AG4" s="1">
-        <v>1362.800000</v>
+        <v>1362.8</v>
       </c>
       <c r="AH4" s="1">
-        <v>-178.610000</v>
+        <v>-178.61</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>30147.304285</v>
+        <v>30147.304284999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>8.374251</v>
+        <v>8.3742509999999992</v>
       </c>
       <c r="AL4" s="1">
-        <v>1383.420000</v>
+        <v>1383.42</v>
       </c>
       <c r="AM4" s="1">
-        <v>-208.388000</v>
+        <v>-208.38800000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>30157.570976</v>
+        <v>30157.570975999999</v>
       </c>
       <c r="AP4" s="1">
         <v>8.377103</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1405.030000</v>
+        <v>1405.03</v>
       </c>
       <c r="AR4" s="1">
-        <v>-252.222000</v>
+        <v>-252.22200000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>30168.207213</v>
+        <v>30168.207213000002</v>
       </c>
       <c r="AU4" s="1">
         <v>8.380058</v>
       </c>
       <c r="AV4" s="1">
-        <v>1429.530000</v>
+        <v>1429.53</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.102000</v>
+        <v>-312.10199999999998</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>30179.294030</v>
+        <v>30179.294030000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>8.383137</v>
+        <v>8.3831369999999996</v>
       </c>
       <c r="BA4" s="1">
-        <v>1448.830000</v>
+        <v>1448.83</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.198000</v>
+        <v>-364.19799999999998</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>30190.233027</v>
+        <v>30190.233026999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>8.386176</v>
+        <v>8.3861760000000007</v>
       </c>
       <c r="BF4" s="1">
-        <v>1533.800000</v>
+        <v>1533.8</v>
       </c>
       <c r="BG4" s="1">
-        <v>-612.244000</v>
+        <v>-612.24400000000003</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>30202.132083</v>
@@ -1175,3279 +1591,3279 @@
         <v>8.389481</v>
       </c>
       <c r="BK4" s="1">
-        <v>1687.500000</v>
+        <v>1687.5</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1057.400000</v>
+        <v>-1057.4000000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>30213.282644</v>
+        <v>30213.282643999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>8.392579</v>
+        <v>8.3925789999999996</v>
       </c>
       <c r="BP4" s="1">
-        <v>1981.130000</v>
+        <v>1981.13</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1828.970000</v>
+        <v>-1828.97</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>30224.143047</v>
+        <v>30224.143047000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>8.395595</v>
+        <v>8.3955950000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>2369.230000</v>
+        <v>2369.23</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2722.470000</v>
+        <v>-2722.47</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>30235.158664</v>
+        <v>30235.158663999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>8.398655</v>
+        <v>8.3986549999999998</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2851.580000</v>
+        <v>2851.58</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3694.180000</v>
+        <v>-3694.18</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>30246.568633</v>
+        <v>30246.568632999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>8.401825</v>
+        <v>8.4018250000000005</v>
       </c>
       <c r="CE4" s="1">
-        <v>4264.370000</v>
+        <v>4264.37</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6038.220000</v>
+        <v>-6038.22</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>30075.457291</v>
+        <v>30075.457290999999</v>
       </c>
       <c r="B5" s="1">
-        <v>8.354294</v>
+        <v>8.3542939999999994</v>
       </c>
       <c r="C5" s="1">
-        <v>1247.920000</v>
+        <v>1247.92</v>
       </c>
       <c r="D5" s="1">
-        <v>-308.577000</v>
+        <v>-308.577</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>30085.829133</v>
+        <v>30085.829132999999</v>
       </c>
       <c r="G5" s="1">
-        <v>8.357175</v>
+        <v>8.3571749999999998</v>
       </c>
       <c r="H5" s="1">
-        <v>1273.040000</v>
+        <v>1273.04</v>
       </c>
       <c r="I5" s="1">
-        <v>-266.508000</v>
+        <v>-266.50799999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>30096.332415</v>
+        <v>30096.332415000001</v>
       </c>
       <c r="L5" s="1">
-        <v>8.360092</v>
+        <v>8.3600919999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1308.390000</v>
+        <v>1308.3900000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-202.959000</v>
+        <v>-202.959</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>30106.840691</v>
+        <v>30106.840691000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>8.363011</v>
+        <v>8.3630110000000002</v>
       </c>
       <c r="R5" s="1">
-        <v>1319.910000</v>
+        <v>1319.91</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.885000</v>
+        <v>-184.88499999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>30117.189188</v>
       </c>
       <c r="V5" s="1">
-        <v>8.365886</v>
+        <v>8.3658859999999997</v>
       </c>
       <c r="W5" s="1">
-        <v>1332.870000</v>
+        <v>1332.87</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.101000</v>
+        <v>-171.101</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>30127.386438</v>
+        <v>30127.386438000001</v>
       </c>
       <c r="AA5" s="1">
-        <v>8.368718</v>
+        <v>8.3687179999999994</v>
       </c>
       <c r="AB5" s="1">
-        <v>1350.180000</v>
+        <v>1350.18</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.016000</v>
+        <v>-169.01599999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>30137.491467</v>
       </c>
       <c r="AF5" s="1">
-        <v>8.371525</v>
+        <v>8.3715250000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1362.910000</v>
+        <v>1362.91</v>
       </c>
       <c r="AH5" s="1">
-        <v>-178.611000</v>
+        <v>-178.61099999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>30147.656475</v>
       </c>
       <c r="AK5" s="1">
-        <v>8.374349</v>
+        <v>8.3743490000000005</v>
       </c>
       <c r="AL5" s="1">
-        <v>1383.400000</v>
+        <v>1383.4</v>
       </c>
       <c r="AM5" s="1">
-        <v>-208.424000</v>
+        <v>-208.42400000000001</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>30157.931070</v>
+        <v>30157.931069999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>8.377203</v>
+        <v>8.3772029999999997</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1405.000000</v>
+        <v>1405</v>
       </c>
       <c r="AR5" s="1">
-        <v>-252.175000</v>
+        <v>-252.17500000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>30168.569302</v>
       </c>
       <c r="AU5" s="1">
-        <v>8.380158</v>
+        <v>8.3801579999999998</v>
       </c>
       <c r="AV5" s="1">
-        <v>1429.490000</v>
+        <v>1429.49</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.101000</v>
+        <v>-312.101</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>30180.013458</v>
+        <v>30180.013458000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>8.383337</v>
+        <v>8.3833369999999992</v>
       </c>
       <c r="BA5" s="1">
-        <v>1448.810000</v>
+        <v>1448.81</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.175000</v>
+        <v>-364.17500000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>30190.959669</v>
       </c>
       <c r="BE5" s="1">
-        <v>8.386378</v>
+        <v>8.3863780000000006</v>
       </c>
       <c r="BF5" s="1">
-        <v>1533.840000</v>
+        <v>1533.84</v>
       </c>
       <c r="BG5" s="1">
-        <v>-612.306000</v>
+        <v>-612.30600000000004</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>30202.509507</v>
+        <v>30202.509506999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>8.389586</v>
+        <v>8.3895859999999995</v>
       </c>
       <c r="BK5" s="1">
-        <v>1687.510000</v>
+        <v>1687.51</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1057.300000</v>
+        <v>-1057.3</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>30213.681396</v>
       </c>
       <c r="BO5" s="1">
-        <v>8.392689</v>
+        <v>8.3926890000000007</v>
       </c>
       <c r="BP5" s="1">
-        <v>1981.030000</v>
+        <v>1981.03</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1829.080000</v>
+        <v>-1829.08</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>30224.555686</v>
       </c>
       <c r="BT5" s="1">
-        <v>8.395710</v>
+        <v>8.3957099999999993</v>
       </c>
       <c r="BU5" s="1">
-        <v>2369.150000</v>
+        <v>2369.15</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2722.830000</v>
+        <v>-2722.83</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>30235.904182</v>
+        <v>30235.904181999998</v>
       </c>
       <c r="BY5" s="1">
-        <v>8.398862</v>
+        <v>8.3988619999999994</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2851.520000</v>
+        <v>2851.52</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3693.560000</v>
+        <v>-3693.56</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>30246.809221</v>
       </c>
       <c r="CD5" s="1">
-        <v>8.401891</v>
+        <v>8.4018910000000009</v>
       </c>
       <c r="CE5" s="1">
-        <v>4274.850000</v>
+        <v>4274.8500000000004</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6049.640000</v>
+        <v>-6049.64</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>30075.797050</v>
+        <v>30075.797050000001</v>
       </c>
       <c r="B6" s="1">
-        <v>8.354388</v>
+        <v>8.3543880000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1247.920000</v>
+        <v>1247.92</v>
       </c>
       <c r="D6" s="1">
-        <v>-308.802000</v>
+        <v>-308.80200000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>30086.178814</v>
+        <v>30086.178813999999</v>
       </c>
       <c r="G6" s="1">
         <v>8.357272</v>
       </c>
       <c r="H6" s="1">
-        <v>1273.680000</v>
+        <v>1273.68</v>
       </c>
       <c r="I6" s="1">
-        <v>-266.871000</v>
+        <v>-266.87099999999998</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>30096.765424</v>
+        <v>30096.765424000001</v>
       </c>
       <c r="L6" s="1">
-        <v>8.360213</v>
+        <v>8.3602129999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1308.460000</v>
+        <v>1308.46</v>
       </c>
       <c r="N6" s="1">
-        <v>-203.187000</v>
+        <v>-203.18700000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>30107.273169</v>
       </c>
       <c r="Q6" s="1">
-        <v>8.363131</v>
+        <v>8.3631309999999992</v>
       </c>
       <c r="R6" s="1">
-        <v>1319.960000</v>
+        <v>1319.96</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.862000</v>
+        <v>-184.86199999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>30117.465460</v>
+        <v>30117.465459999999</v>
       </c>
       <c r="V6" s="1">
-        <v>8.365963</v>
+        <v>8.3659630000000007</v>
       </c>
       <c r="W6" s="1">
-        <v>1332.870000</v>
+        <v>1332.87</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.124000</v>
+        <v>-171.124</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>30127.676103</v>
+        <v>30127.676103000002</v>
       </c>
       <c r="AA6" s="1">
-        <v>8.368799</v>
+        <v>8.3687989999999992</v>
       </c>
       <c r="AB6" s="1">
-        <v>1350.060000</v>
+        <v>1350.06</v>
       </c>
       <c r="AC6" s="1">
-        <v>-168.929000</v>
+        <v>-168.929</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>30137.835192</v>
+        <v>30137.835191999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>8.371621</v>
+        <v>8.3716209999999993</v>
       </c>
       <c r="AG6" s="1">
-        <v>1362.890000</v>
+        <v>1362.89</v>
       </c>
       <c r="AH6" s="1">
-        <v>-178.606000</v>
+        <v>-178.60599999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>30148.004663</v>
       </c>
       <c r="AK6" s="1">
-        <v>8.374446</v>
+        <v>8.3744460000000007</v>
       </c>
       <c r="AL6" s="1">
-        <v>1383.430000</v>
+        <v>1383.43</v>
       </c>
       <c r="AM6" s="1">
-        <v>-208.392000</v>
+        <v>-208.392</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>30158.290174</v>
+        <v>30158.290174000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>8.377303</v>
+        <v>8.3773029999999995</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1405.020000</v>
+        <v>1405.02</v>
       </c>
       <c r="AR6" s="1">
-        <v>-252.209000</v>
+        <v>-252.209</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>30169.301887</v>
+        <v>30169.301887000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>8.380362</v>
+        <v>8.3803619999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1429.520000</v>
+        <v>1429.52</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.060000</v>
+        <v>-312.06</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>30180.367140</v>
+        <v>30180.367139999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>8.383435</v>
+        <v>8.3834350000000004</v>
       </c>
       <c r="BA6" s="1">
-        <v>1448.830000</v>
+        <v>1448.83</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.188000</v>
+        <v>-364.18799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>30191.336659</v>
+        <v>30191.336659000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>8.386482</v>
+        <v>8.3864820000000009</v>
       </c>
       <c r="BF6" s="1">
-        <v>1533.820000</v>
+        <v>1533.82</v>
       </c>
       <c r="BG6" s="1">
-        <v>-612.233000</v>
+        <v>-612.23299999999995</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>30202.887492</v>
+        <v>30202.887492000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>8.389691</v>
+        <v>8.3896909999999991</v>
       </c>
       <c r="BK6" s="1">
-        <v>1687.480000</v>
+        <v>1687.48</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1057.340000</v>
+        <v>-1057.3399999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>30214.412995</v>
+        <v>30214.412994999999</v>
       </c>
       <c r="BO6" s="1">
-        <v>8.392892</v>
+        <v>8.3928919999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1981.120000</v>
+        <v>1981.12</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1828.910000</v>
+        <v>-1828.91</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>30225.293733</v>
+        <v>30225.293732999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>8.395915</v>
+        <v>8.3959150000000005</v>
       </c>
       <c r="BU6" s="1">
-        <v>2368.880000</v>
+        <v>2368.88</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2722.370000</v>
+        <v>-2722.37</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>30236.024215</v>
+        <v>30236.024215000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>8.398896</v>
+        <v>8.3988960000000006</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2850.470000</v>
+        <v>2850.47</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3693.450000</v>
+        <v>-3693.45</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>30247.344872</v>
+        <v>30247.344872000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>8.402040</v>
+        <v>8.4020399999999995</v>
       </c>
       <c r="CE6" s="1">
-        <v>4279.060000</v>
+        <v>4279.0600000000004</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6031.830000</v>
+        <v>-6031.83</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>30076.138799</v>
       </c>
       <c r="B7" s="1">
-        <v>8.354483</v>
+        <v>8.3544830000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1248.200000</v>
+        <v>1248.2</v>
       </c>
       <c r="D7" s="1">
-        <v>-308.989000</v>
+        <v>-308.98899999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>30086.624220</v>
+        <v>30086.624220000002</v>
       </c>
       <c r="G7" s="1">
-        <v>8.357396</v>
+        <v>8.3573959999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>1273.240000</v>
+        <v>1273.24</v>
       </c>
       <c r="I7" s="1">
-        <v>-265.921000</v>
+        <v>-265.92099999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>30097.026319</v>
+        <v>30097.026319000001</v>
       </c>
       <c r="L7" s="1">
-        <v>8.360285</v>
+        <v>8.3602849999999993</v>
       </c>
       <c r="M7" s="1">
-        <v>1308.170000</v>
+        <v>1308.17</v>
       </c>
       <c r="N7" s="1">
-        <v>-203.218000</v>
+        <v>-203.21799999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>30107.539520</v>
+        <v>30107.539519999998</v>
       </c>
       <c r="Q7" s="1">
-        <v>8.363205</v>
+        <v>8.3632050000000007</v>
       </c>
       <c r="R7" s="1">
-        <v>1319.960000</v>
+        <v>1319.96</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.834000</v>
+        <v>-184.834</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>30117.805220</v>
+        <v>30117.805219999998</v>
       </c>
       <c r="V7" s="1">
-        <v>8.366057</v>
+        <v>8.3660569999999996</v>
       </c>
       <c r="W7" s="1">
-        <v>1333.020000</v>
+        <v>1333.02</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.167000</v>
+        <v>-171.167</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>30128.006966</v>
+        <v>30128.006966000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>8.368891</v>
+        <v>8.3688909999999996</v>
       </c>
       <c r="AB7" s="1">
-        <v>1350.030000</v>
+        <v>1350.03</v>
       </c>
       <c r="AC7" s="1">
-        <v>-168.951000</v>
+        <v>-168.95099999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>30138.180376</v>
       </c>
       <c r="AF7" s="1">
-        <v>8.371717</v>
+        <v>8.3717170000000003</v>
       </c>
       <c r="AG7" s="1">
-        <v>1362.850000</v>
+        <v>1362.85</v>
       </c>
       <c r="AH7" s="1">
-        <v>-178.574000</v>
+        <v>-178.57400000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>30148.702011</v>
+        <v>30148.702011000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>8.374639</v>
+        <v>8.3746390000000002</v>
       </c>
       <c r="AL7" s="1">
-        <v>1383.420000</v>
+        <v>1383.42</v>
       </c>
       <c r="AM7" s="1">
-        <v>-208.370000</v>
+        <v>-208.37</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>30159.012440</v>
+        <v>30159.012439999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>8.377503</v>
+        <v>8.3775030000000008</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1405.010000</v>
+        <v>1405.01</v>
       </c>
       <c r="AR7" s="1">
-        <v>-252.172000</v>
+        <v>-252.172</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>30169.693694</v>
+        <v>30169.693694000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>8.380470</v>
+        <v>8.3804700000000008</v>
       </c>
       <c r="AV7" s="1">
-        <v>1429.520000</v>
+        <v>1429.52</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.120000</v>
+        <v>-312.12</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>30180.727200</v>
+        <v>30180.727200000001</v>
       </c>
       <c r="AZ7" s="1">
-        <v>8.383535</v>
+        <v>8.3835350000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1448.810000</v>
+        <v>1448.81</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.104000</v>
+        <v>-364.10399999999998</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>30191.699201</v>
+        <v>30191.699200999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>8.386583</v>
+        <v>8.3865829999999999</v>
       </c>
       <c r="BF7" s="1">
-        <v>1533.800000</v>
+        <v>1533.8</v>
       </c>
       <c r="BG7" s="1">
-        <v>-612.243000</v>
+        <v>-612.24300000000005</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>30203.592803</v>
       </c>
       <c r="BJ7" s="1">
-        <v>8.389887</v>
+        <v>8.3898869999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1687.550000</v>
+        <v>1687.55</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1057.290000</v>
+        <v>-1057.29</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>30214.524595</v>
+        <v>30214.524594999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>8.392923</v>
+        <v>8.3929229999999997</v>
       </c>
       <c r="BP7" s="1">
-        <v>1981.110000</v>
+        <v>1981.11</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1828.960000</v>
+        <v>-1828.96</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>30225.411782</v>
+        <v>30225.411781999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>8.395948</v>
+        <v>8.3959480000000006</v>
       </c>
       <c r="BU7" s="1">
-        <v>2368.520000</v>
+        <v>2368.52</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2722.520000</v>
+        <v>-2722.52</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>30236.449750</v>
+        <v>30236.44975</v>
       </c>
       <c r="BY7" s="1">
-        <v>8.399014</v>
+        <v>8.3990139999999993</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2851.140000</v>
+        <v>2851.14</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3694.050000</v>
+        <v>-3694.05</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>30247.883559</v>
+        <v>30247.883559000002</v>
       </c>
       <c r="CD7" s="1">
-        <v>8.402190</v>
+        <v>8.4021899999999992</v>
       </c>
       <c r="CE7" s="1">
-        <v>4262.480000</v>
+        <v>4262.4799999999996</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6044.860000</v>
+        <v>-6044.86</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>30076.571305</v>
+        <v>30076.571305000001</v>
       </c>
       <c r="B8" s="1">
-        <v>8.354603</v>
+        <v>8.3546029999999991</v>
       </c>
       <c r="C8" s="1">
-        <v>1248.040000</v>
+        <v>1248.04</v>
       </c>
       <c r="D8" s="1">
-        <v>-308.959000</v>
+        <v>-308.959</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>30086.882140</v>
+        <v>30086.882140000002</v>
       </c>
       <c r="G8" s="1">
-        <v>8.357467</v>
+        <v>8.3574669999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>1273.870000</v>
+        <v>1273.8699999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-266.185000</v>
+        <v>-266.185</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>30097.372527</v>
       </c>
       <c r="L8" s="1">
-        <v>8.360381</v>
+        <v>8.3603810000000003</v>
       </c>
       <c r="M8" s="1">
-        <v>1308.010000</v>
+        <v>1308.01</v>
       </c>
       <c r="N8" s="1">
-        <v>-203.407000</v>
+        <v>-203.40700000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>30107.888741</v>
+        <v>30107.888740999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>8.363302</v>
+        <v>8.3633019999999991</v>
       </c>
       <c r="R8" s="1">
-        <v>1319.990000</v>
+        <v>1319.99</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.849000</v>
+        <v>-184.84899999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>30118.148465</v>
+        <v>30118.148464999998</v>
       </c>
       <c r="V8" s="1">
-        <v>8.366152</v>
+        <v>8.3661519999999996</v>
       </c>
       <c r="W8" s="1">
-        <v>1333.090000</v>
+        <v>1333.09</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.150000</v>
+        <v>-171.15</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>30128.706789</v>
       </c>
       <c r="AA8" s="1">
-        <v>8.369085</v>
+        <v>8.3690850000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1349.940000</v>
+        <v>1349.94</v>
       </c>
       <c r="AC8" s="1">
-        <v>-168.733000</v>
+        <v>-168.733</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>30138.865878</v>
+        <v>30138.865878000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>8.371907</v>
+        <v>8.3719070000000002</v>
       </c>
       <c r="AG8" s="1">
-        <v>1362.820000</v>
+        <v>1362.82</v>
       </c>
       <c r="AH8" s="1">
-        <v>-178.620000</v>
+        <v>-178.62</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>30149.053674</v>
+        <v>30149.053673999999</v>
       </c>
       <c r="AK8" s="1">
-        <v>8.374737</v>
+        <v>8.3747369999999997</v>
       </c>
       <c r="AL8" s="1">
-        <v>1383.410000</v>
+        <v>1383.41</v>
       </c>
       <c r="AM8" s="1">
-        <v>-208.330000</v>
+        <v>-208.33</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>30159.386829</v>
+        <v>30159.386828999999</v>
       </c>
       <c r="AP8" s="1">
-        <v>8.377607</v>
+        <v>8.3776069999999994</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1405.020000</v>
+        <v>1405.02</v>
       </c>
       <c r="AR8" s="1">
-        <v>-252.201000</v>
+        <v>-252.20099999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>30170.054783</v>
       </c>
       <c r="AU8" s="1">
-        <v>8.380571</v>
+        <v>8.3805709999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>1429.470000</v>
+        <v>1429.47</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.132000</v>
+        <v>-312.13200000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>30181.413198</v>
+        <v>30181.413197999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>8.383726</v>
+        <v>8.3837259999999993</v>
       </c>
       <c r="BA8" s="1">
-        <v>1448.850000</v>
+        <v>1448.85</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.127000</v>
+        <v>-364.12700000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>30192.373799</v>
+        <v>30192.373799000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>8.386770</v>
+        <v>8.3867700000000003</v>
       </c>
       <c r="BF8" s="1">
-        <v>1533.820000</v>
+        <v>1533.82</v>
       </c>
       <c r="BG8" s="1">
-        <v>-612.255000</v>
+        <v>-612.255</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>30204.035731</v>
       </c>
       <c r="BJ8" s="1">
-        <v>8.390010</v>
+        <v>8.3900100000000002</v>
       </c>
       <c r="BK8" s="1">
-        <v>1687.510000</v>
+        <v>1687.51</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1057.230000</v>
+        <v>-1057.23</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>30214.923874</v>
       </c>
       <c r="BO8" s="1">
-        <v>8.393034</v>
+        <v>8.3930340000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1981.010000</v>
+        <v>1981.01</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1828.940000</v>
+        <v>-1828.94</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>30225.829908</v>
       </c>
       <c r="BT8" s="1">
-        <v>8.396064</v>
+        <v>8.3960640000000009</v>
       </c>
       <c r="BU8" s="1">
-        <v>2368.190000</v>
+        <v>2368.19</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2722.450000</v>
+        <v>-2722.45</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
         <v>30236.863909</v>
       </c>
       <c r="BY8" s="1">
-        <v>8.399129</v>
+        <v>8.3991290000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2850.980000</v>
+        <v>2850.98</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3694.370000</v>
+        <v>-3694.37</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>30248.423206</v>
+        <v>30248.423205999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>8.402340</v>
+        <v>8.4023400000000006</v>
       </c>
       <c r="CE8" s="1">
-        <v>4284.750000</v>
+        <v>4284.75</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6044.570000</v>
+        <v>-6044.57</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>30076.842617</v>
+        <v>30076.842616999998</v>
       </c>
       <c r="B9" s="1">
-        <v>8.354679</v>
+        <v>8.3546790000000009</v>
       </c>
       <c r="C9" s="1">
-        <v>1247.860000</v>
+        <v>1247.8599999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-308.588000</v>
+        <v>-308.58800000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>30087.226364</v>
+        <v>30087.226363999998</v>
       </c>
       <c r="G9" s="1">
-        <v>8.357563</v>
+        <v>8.3575630000000007</v>
       </c>
       <c r="H9" s="1">
-        <v>1272.610000</v>
+        <v>1272.6099999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-266.174000</v>
+        <v>-266.17399999999998</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>30097.717940</v>
+        <v>30097.717939999999</v>
       </c>
       <c r="L9" s="1">
-        <v>8.360477</v>
+        <v>8.3604769999999995</v>
       </c>
       <c r="M9" s="1">
-        <v>1308.370000</v>
+        <v>1308.3699999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-203.316000</v>
+        <v>-203.316</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>30108.235936</v>
+        <v>30108.235936000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>8.363399</v>
+        <v>8.3633989999999994</v>
       </c>
       <c r="R9" s="1">
-        <v>1319.940000</v>
+        <v>1319.94</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.977000</v>
+        <v>-184.977</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>30118.836439</v>
+        <v>30118.836438999999</v>
       </c>
       <c r="V9" s="1">
-        <v>8.366343</v>
+        <v>8.3663430000000005</v>
       </c>
       <c r="W9" s="1">
-        <v>1332.990000</v>
+        <v>1332.99</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.129000</v>
+        <v>-171.12899999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>30129.052532</v>
+        <v>30129.052532000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>8.369181</v>
+        <v>8.3691809999999993</v>
       </c>
       <c r="AB9" s="1">
-        <v>1349.960000</v>
+        <v>1349.96</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.109000</v>
+        <v>-169.10900000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>30139.210567</v>
+        <v>30139.210566999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>8.372003</v>
+        <v>8.3720029999999994</v>
       </c>
       <c r="AG9" s="1">
-        <v>1362.890000</v>
+        <v>1362.89</v>
       </c>
       <c r="AH9" s="1">
-        <v>-178.538000</v>
+        <v>-178.53800000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>30149.397401</v>
+        <v>30149.397400999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>8.374833</v>
+        <v>8.3748330000000006</v>
       </c>
       <c r="AL9" s="1">
-        <v>1383.400000</v>
+        <v>1383.4</v>
       </c>
       <c r="AM9" s="1">
-        <v>-208.387000</v>
+        <v>-208.387</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>30159.733037</v>
+        <v>30159.733037000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>8.377704</v>
+        <v>8.3777039999999996</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1405.030000</v>
+        <v>1405.03</v>
       </c>
       <c r="AR9" s="1">
-        <v>-252.186000</v>
+        <v>-252.18600000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>30170.734830</v>
+        <v>30170.734830000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>8.380760</v>
+        <v>8.3807600000000004</v>
       </c>
       <c r="AV9" s="1">
-        <v>1429.510000</v>
+        <v>1429.51</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.107000</v>
+        <v>-312.10700000000003</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>30181.804543</v>
+        <v>30181.804542999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>8.383835</v>
+        <v>8.3838349999999995</v>
       </c>
       <c r="BA9" s="1">
-        <v>1448.810000</v>
+        <v>1448.81</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.134000</v>
+        <v>-364.13400000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>30192.816722</v>
       </c>
       <c r="BE9" s="1">
-        <v>8.386894</v>
+        <v>8.3868939999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1533.820000</v>
+        <v>1533.82</v>
       </c>
       <c r="BG9" s="1">
-        <v>-612.239000</v>
+        <v>-612.23900000000003</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>30204.440433</v>
       </c>
       <c r="BJ9" s="1">
-        <v>8.390122</v>
+        <v>8.3901219999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1687.540000</v>
+        <v>1687.54</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1057.360000</v>
+        <v>-1057.3599999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>30215.344482</v>
       </c>
       <c r="BO9" s="1">
-        <v>8.393151</v>
+        <v>8.3931509999999996</v>
       </c>
       <c r="BP9" s="1">
-        <v>1980.990000</v>
+        <v>1980.99</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1829.110000</v>
+        <v>-1829.11</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>30226.258483</v>
+        <v>30226.258483000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>8.396183</v>
+        <v>8.3961830000000006</v>
       </c>
       <c r="BU9" s="1">
-        <v>2368.350000</v>
+        <v>2368.35</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2722.710000</v>
+        <v>-2722.71</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>30237.319770</v>
+        <v>30237.319769999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>8.399255</v>
+        <v>8.3992550000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2850.790000</v>
+        <v>2850.79</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3694.190000</v>
+        <v>-3694.19</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>30248.959846</v>
+        <v>30248.959846000002</v>
       </c>
       <c r="CD9" s="1">
-        <v>8.402489</v>
+        <v>8.4024889999999992</v>
       </c>
       <c r="CE9" s="1">
-        <v>4262.500000</v>
+        <v>4262.5</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6033.010000</v>
+        <v>-6033.01</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>30077.171497</v>
+        <v>30077.171496999999</v>
       </c>
       <c r="B10" s="1">
-        <v>8.354770</v>
+        <v>8.3547700000000003</v>
       </c>
       <c r="C10" s="1">
-        <v>1248.050000</v>
+        <v>1248.05</v>
       </c>
       <c r="D10" s="1">
-        <v>-308.792000</v>
+        <v>-308.79199999999997</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>30087.571579</v>
+        <v>30087.571578999999</v>
       </c>
       <c r="G10" s="1">
-        <v>8.357659</v>
+        <v>8.3576589999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1272.720000</v>
+        <v>1272.72</v>
       </c>
       <c r="I10" s="1">
-        <v>-265.992000</v>
+        <v>-265.99200000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>30098.411676</v>
       </c>
       <c r="L10" s="1">
-        <v>8.360670</v>
+        <v>8.3606700000000007</v>
       </c>
       <c r="M10" s="1">
-        <v>1308.320000</v>
+        <v>1308.32</v>
       </c>
       <c r="N10" s="1">
-        <v>-203.514000</v>
+        <v>-203.51400000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>30108.930832</v>
+        <v>30108.930831999998</v>
       </c>
       <c r="Q10" s="1">
-        <v>8.363592</v>
+        <v>8.3635920000000006</v>
       </c>
       <c r="R10" s="1">
-        <v>1319.930000</v>
+        <v>1319.93</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.939000</v>
+        <v>-184.93899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>30119.184593</v>
+        <v>30119.184593000002</v>
       </c>
       <c r="V10" s="1">
-        <v>8.366440</v>
+        <v>8.3664400000000008</v>
       </c>
       <c r="W10" s="1">
-        <v>1332.770000</v>
+        <v>1332.77</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.131000</v>
+        <v>-171.131</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>30129.404197</v>
       </c>
       <c r="AA10" s="1">
-        <v>8.369279</v>
+        <v>8.3692790000000006</v>
       </c>
       <c r="AB10" s="1">
-        <v>1350.120000</v>
+        <v>1350.12</v>
       </c>
       <c r="AC10" s="1">
-        <v>-168.946000</v>
+        <v>-168.946</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>30139.554790</v>
+        <v>30139.554789999998</v>
       </c>
       <c r="AF10" s="1">
-        <v>8.372099</v>
+        <v>8.3720990000000004</v>
       </c>
       <c r="AG10" s="1">
-        <v>1362.900000</v>
+        <v>1362.9</v>
       </c>
       <c r="AH10" s="1">
-        <v>-178.552000</v>
+        <v>-178.55199999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>30150.059560</v>
+        <v>30150.059560000002</v>
       </c>
       <c r="AK10" s="1">
-        <v>8.375017</v>
+        <v>8.3750169999999997</v>
       </c>
       <c r="AL10" s="1">
-        <v>1383.410000</v>
+        <v>1383.41</v>
       </c>
       <c r="AM10" s="1">
-        <v>-208.354000</v>
+        <v>-208.35400000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>30160.460667</v>
+        <v>30160.460666999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>8.377906</v>
+        <v>8.3779059999999994</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1405.020000</v>
+        <v>1405.02</v>
       </c>
       <c r="AR10" s="1">
-        <v>-252.178000</v>
+        <v>-252.178</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>30171.149453</v>
+        <v>30171.149453000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>8.380875</v>
+        <v>8.3808749999999996</v>
       </c>
       <c r="AV10" s="1">
-        <v>1429.500000</v>
+        <v>1429.5</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.096000</v>
+        <v>-312.096</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>30182.163646</v>
+        <v>30182.163646000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>8.383934</v>
       </c>
       <c r="BA10" s="1">
-        <v>1448.820000</v>
+        <v>1448.82</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.150000</v>
+        <v>-364.15</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>30193.175982</v>
+        <v>30193.175982000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>8.386993</v>
+        <v>8.3869930000000004</v>
       </c>
       <c r="BF10" s="1">
-        <v>1533.800000</v>
+        <v>1533.8</v>
       </c>
       <c r="BG10" s="1">
-        <v>-612.222000</v>
+        <v>-612.22199999999998</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>30204.814911</v>
+        <v>30204.814911000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>8.390226</v>
+        <v>8.3902260000000002</v>
       </c>
       <c r="BK10" s="1">
-        <v>1687.550000</v>
+        <v>1687.55</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1057.310000</v>
+        <v>-1057.31</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>30215.765585</v>
+        <v>30215.765585000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>8.393268</v>
+        <v>8.3932680000000008</v>
       </c>
       <c r="BP10" s="1">
-        <v>1981.010000</v>
+        <v>1981.01</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1828.930000</v>
+        <v>-1828.93</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>30226.753460</v>
+        <v>30226.75346</v>
       </c>
       <c r="BT10" s="1">
-        <v>8.396320</v>
+        <v>8.3963199999999993</v>
       </c>
       <c r="BU10" s="1">
-        <v>2368.310000</v>
+        <v>2368.31</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2722.560000</v>
+        <v>-2722.56</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>30237.770100</v>
+        <v>30237.770100000002</v>
       </c>
       <c r="BY10" s="1">
         <v>8.399381</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2851.200000</v>
+        <v>2851.2</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3693.960000</v>
+        <v>-3693.96</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>30249.504464</v>
+        <v>30249.504464000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>8.402640</v>
+        <v>8.4026399999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4273.470000</v>
+        <v>4273.47</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6048.640000</v>
+        <v>-6048.64</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>30077.930344</v>
       </c>
       <c r="B11" s="1">
-        <v>8.354981</v>
+        <v>8.3549810000000004</v>
       </c>
       <c r="C11" s="1">
-        <v>1248.020000</v>
+        <v>1248.02</v>
       </c>
       <c r="D11" s="1">
-        <v>-308.800000</v>
+        <v>-308.8</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>30088.257546</v>
+        <v>30088.257546000001</v>
       </c>
       <c r="G11" s="1">
-        <v>8.357849</v>
+        <v>8.3578489999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1273.080000</v>
+        <v>1273.08</v>
       </c>
       <c r="I11" s="1">
-        <v>-266.693000</v>
+        <v>-266.69299999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>30098.756396</v>
+        <v>30098.756396000001</v>
       </c>
       <c r="L11" s="1">
-        <v>8.360766</v>
+        <v>8.3607659999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>1308.100000</v>
+        <v>1308.0999999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-203.176000</v>
+        <v>-203.17599999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>30109.281470</v>
+        <v>30109.281470000002</v>
       </c>
       <c r="Q11" s="1">
-        <v>8.363689</v>
+        <v>8.3636890000000008</v>
       </c>
       <c r="R11" s="1">
-        <v>1319.960000</v>
+        <v>1319.96</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.860000</v>
+        <v>-184.86</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>30119.523361</v>
       </c>
       <c r="V11" s="1">
-        <v>8.366534</v>
+        <v>8.3665339999999997</v>
       </c>
       <c r="W11" s="1">
-        <v>1332.970000</v>
+        <v>1332.97</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.125000</v>
+        <v>-171.125</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>30130.052467</v>
+        <v>30130.052467000001</v>
       </c>
       <c r="AA11" s="1">
-        <v>8.369459</v>
+        <v>8.3694590000000009</v>
       </c>
       <c r="AB11" s="1">
-        <v>1350.060000</v>
+        <v>1350.06</v>
       </c>
       <c r="AC11" s="1">
-        <v>-168.926000</v>
+        <v>-168.92599999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>30140.209509</v>
       </c>
       <c r="AF11" s="1">
-        <v>8.372280</v>
+        <v>8.3722799999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1362.920000</v>
+        <v>1362.92</v>
       </c>
       <c r="AH11" s="1">
-        <v>-178.557000</v>
+        <v>-178.55699999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>30150.445490</v>
+        <v>30150.445489999998</v>
       </c>
       <c r="AK11" s="1">
-        <v>8.375124</v>
+        <v>8.3751239999999996</v>
       </c>
       <c r="AL11" s="1">
-        <v>1383.410000</v>
+        <v>1383.41</v>
       </c>
       <c r="AM11" s="1">
-        <v>-208.358000</v>
+        <v>-208.358</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>30160.839637</v>
+        <v>30160.839637000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>8.378011</v>
+        <v>8.3780110000000008</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1405.010000</v>
+        <v>1405.01</v>
       </c>
       <c r="AR11" s="1">
-        <v>-252.194000</v>
+        <v>-252.19399999999999</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>30171.514012</v>
       </c>
       <c r="AU11" s="1">
-        <v>8.380976</v>
+        <v>8.3809760000000004</v>
       </c>
       <c r="AV11" s="1">
-        <v>1429.510000</v>
+        <v>1429.51</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.114000</v>
+        <v>-312.11399999999998</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>30182.523213</v>
       </c>
       <c r="AZ11" s="1">
-        <v>8.384034</v>
+        <v>8.3840339999999998</v>
       </c>
       <c r="BA11" s="1">
-        <v>1448.810000</v>
+        <v>1448.81</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.101000</v>
+        <v>-364.101</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>30193.549281</v>
       </c>
       <c r="BE11" s="1">
-        <v>8.387097</v>
+        <v>8.3870970000000007</v>
       </c>
       <c r="BF11" s="1">
-        <v>1533.830000</v>
+        <v>1533.83</v>
       </c>
       <c r="BG11" s="1">
-        <v>-612.239000</v>
+        <v>-612.23900000000003</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>30205.236555</v>
+        <v>30205.236554999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>8.390343</v>
+        <v>8.3903429999999997</v>
       </c>
       <c r="BK11" s="1">
-        <v>1687.570000</v>
+        <v>1687.57</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1057.280000</v>
+        <v>-1057.28</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>30216.164369</v>
+        <v>30216.164368999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>8.393379</v>
+        <v>8.3933789999999995</v>
       </c>
       <c r="BP11" s="1">
-        <v>1981.070000</v>
+        <v>1981.07</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1828.970000</v>
+        <v>-1828.97</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>30227.098178</v>
       </c>
       <c r="BT11" s="1">
-        <v>8.396416</v>
+        <v>8.3964160000000003</v>
       </c>
       <c r="BU11" s="1">
-        <v>2367.920000</v>
+        <v>2367.92</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2722.600000</v>
+        <v>-2722.6</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>30238.189716</v>
+        <v>30238.189716000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>8.399497</v>
+        <v>8.3994970000000002</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2850.170000</v>
+        <v>2850.17</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3693.140000</v>
+        <v>-3693.14</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>30250.040628</v>
+        <v>30250.040627999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>8.402789</v>
+        <v>8.4027890000000003</v>
       </c>
       <c r="CE11" s="1">
-        <v>4278.670000</v>
+        <v>4278.67</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6031.030000</v>
+        <v>-6031.03</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>30078.209628</v>
+        <v>30078.209628000001</v>
       </c>
       <c r="B12" s="1">
-        <v>8.355058</v>
+        <v>8.3550579999999997</v>
       </c>
       <c r="C12" s="1">
-        <v>1247.970000</v>
+        <v>1247.97</v>
       </c>
       <c r="D12" s="1">
-        <v>-309.033000</v>
+        <v>-309.03300000000002</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>30088.605739</v>
+        <v>30088.605738999999</v>
       </c>
       <c r="G12" s="1">
-        <v>8.357946</v>
+        <v>8.3579460000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1273.450000</v>
+        <v>1273.45</v>
       </c>
       <c r="I12" s="1">
-        <v>-266.207000</v>
+        <v>-266.20699999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>30099.101090</v>
+        <v>30099.10109</v>
       </c>
       <c r="L12" s="1">
-        <v>8.360861</v>
+        <v>8.3608609999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1307.940000</v>
+        <v>1307.94</v>
       </c>
       <c r="N12" s="1">
-        <v>-203.107000</v>
+        <v>-203.107</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>30109.632141</v>
+        <v>30109.632140999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>8.363787</v>
+        <v>8.3637870000000003</v>
       </c>
       <c r="R12" s="1">
-        <v>1319.950000</v>
+        <v>1319.95</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.781000</v>
+        <v>-184.78100000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>30120.176623</v>
+        <v>30120.176622999999</v>
       </c>
       <c r="V12" s="1">
-        <v>8.366716</v>
+        <v>8.3667160000000003</v>
       </c>
       <c r="W12" s="1">
-        <v>1333.000000</v>
+        <v>1333</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.175000</v>
+        <v>-171.17500000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>30130.450762</v>
       </c>
       <c r="AA12" s="1">
-        <v>8.369570</v>
+        <v>8.3695699999999995</v>
       </c>
       <c r="AB12" s="1">
-        <v>1350.350000</v>
+        <v>1350.35</v>
       </c>
       <c r="AC12" s="1">
-        <v>-168.615000</v>
+        <v>-168.61500000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>30140.586470</v>
+        <v>30140.586469999998</v>
       </c>
       <c r="AF12" s="1">
-        <v>8.372385</v>
+        <v>8.3723849999999995</v>
       </c>
       <c r="AG12" s="1">
-        <v>1362.820000</v>
+        <v>1362.82</v>
       </c>
       <c r="AH12" s="1">
-        <v>-178.568000</v>
+        <v>-178.56800000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>30150.794137</v>
+        <v>30150.794137000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>8.375221</v>
+        <v>8.3752209999999998</v>
       </c>
       <c r="AL12" s="1">
-        <v>1383.390000</v>
+        <v>1383.39</v>
       </c>
       <c r="AM12" s="1">
-        <v>-208.382000</v>
+        <v>-208.38200000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>30161.220537</v>
+        <v>30161.220537000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>8.378117</v>
+        <v>8.3781169999999996</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1405.030000</v>
+        <v>1405.03</v>
       </c>
       <c r="AR12" s="1">
-        <v>-252.185000</v>
+        <v>-252.185</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>30171.881051</v>
       </c>
       <c r="AU12" s="1">
-        <v>8.381078</v>
+        <v>8.3810780000000005</v>
       </c>
       <c r="AV12" s="1">
-        <v>1429.510000</v>
+        <v>1429.51</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.099000</v>
+        <v>-312.09899999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>30182.950765</v>
+        <v>30182.950765000001</v>
       </c>
       <c r="AZ12" s="1">
-        <v>8.384153</v>
+        <v>8.3841529999999995</v>
       </c>
       <c r="BA12" s="1">
-        <v>1448.850000</v>
+        <v>1448.85</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.131000</v>
+        <v>-364.13099999999997</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>30194.270959</v>
+        <v>30194.270959000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>8.387297</v>
+        <v>8.3872970000000002</v>
       </c>
       <c r="BF12" s="1">
-        <v>1533.770000</v>
+        <v>1533.77</v>
       </c>
       <c r="BG12" s="1">
-        <v>-612.225000</v>
+        <v>-612.22500000000002</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>30205.591648</v>
+        <v>30205.591648000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>8.390442</v>
+        <v>8.3904420000000002</v>
       </c>
       <c r="BK12" s="1">
-        <v>1687.520000</v>
+        <v>1687.52</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1057.290000</v>
+        <v>-1057.29</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>30216.560704</v>
       </c>
       <c r="BO12" s="1">
-        <v>8.393489</v>
+        <v>8.3934890000000006</v>
       </c>
       <c r="BP12" s="1">
-        <v>1980.980000</v>
+        <v>1980.98</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1828.920000</v>
+        <v>-1828.92</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>30227.531682</v>
+        <v>30227.531682000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>8.396537</v>
+        <v>8.3965370000000004</v>
       </c>
       <c r="BU12" s="1">
-        <v>2367.910000</v>
+        <v>2367.91</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2722.870000</v>
+        <v>-2722.87</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>30238.632148</v>
+        <v>30238.632148000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>8.399620</v>
+        <v>8.3996200000000005</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2850.450000</v>
+        <v>2850.45</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3694.220000</v>
+        <v>-3694.22</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>30250.583747</v>
+        <v>30250.583747000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>8.402940</v>
+        <v>8.4029399999999992</v>
       </c>
       <c r="CE12" s="1">
-        <v>4261.720000</v>
+        <v>4261.72</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6041.740000</v>
+        <v>-6041.74</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>30078.548888</v>
+        <v>30078.548888000001</v>
       </c>
       <c r="B13" s="1">
-        <v>8.355152</v>
+        <v>8.3551520000000004</v>
       </c>
       <c r="C13" s="1">
-        <v>1247.760000</v>
+        <v>1247.76</v>
       </c>
       <c r="D13" s="1">
-        <v>-308.658000</v>
+        <v>-308.65800000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>30088.955914</v>
+        <v>30088.955913999998</v>
       </c>
       <c r="G13" s="1">
-        <v>8.358043</v>
+        <v>8.3580430000000003</v>
       </c>
       <c r="H13" s="1">
-        <v>1272.770000</v>
+        <v>1272.77</v>
       </c>
       <c r="I13" s="1">
-        <v>-265.915000</v>
+        <v>-265.91500000000002</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>30099.756300</v>
+        <v>30099.756300000001</v>
       </c>
       <c r="L13" s="1">
-        <v>8.361043</v>
+        <v>8.3610430000000004</v>
       </c>
       <c r="M13" s="1">
-        <v>1308.670000</v>
+        <v>1308.67</v>
       </c>
       <c r="N13" s="1">
-        <v>-203.554000</v>
+        <v>-203.554</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>30110.299909</v>
+        <v>30110.299909000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>8.363972</v>
+        <v>8.3639720000000004</v>
       </c>
       <c r="R13" s="1">
-        <v>1320.010000</v>
+        <v>1320.01</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.858000</v>
+        <v>-184.858</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>30120.554049</v>
+        <v>30120.554048999998</v>
       </c>
       <c r="V13" s="1">
-        <v>8.366821</v>
+        <v>8.3668209999999998</v>
       </c>
       <c r="W13" s="1">
-        <v>1332.890000</v>
+        <v>1332.89</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.151000</v>
+        <v>-171.15100000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>30130.800899</v>
+        <v>30130.800899000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>8.369667</v>
+        <v>8.3696669999999997</v>
       </c>
       <c r="AB13" s="1">
-        <v>1350.120000</v>
+        <v>1350.12</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.176000</v>
+        <v>-169.17599999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>30140.928212</v>
+        <v>30140.928211999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>8.372480</v>
+        <v>8.3724799999999995</v>
       </c>
       <c r="AG13" s="1">
-        <v>1362.880000</v>
+        <v>1362.88</v>
       </c>
       <c r="AH13" s="1">
-        <v>-178.593000</v>
+        <v>-178.59299999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>30151.142327</v>
+        <v>30151.142327000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>8.375317</v>
+        <v>8.3753170000000008</v>
       </c>
       <c r="AL13" s="1">
-        <v>1383.390000</v>
+        <v>1383.39</v>
       </c>
       <c r="AM13" s="1">
-        <v>-208.397000</v>
+        <v>-208.39699999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>30161.644123</v>
+        <v>30161.644122999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>8.378234</v>
+        <v>8.3782340000000008</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1405.030000</v>
+        <v>1405.03</v>
       </c>
       <c r="AR13" s="1">
-        <v>-252.193000</v>
+        <v>-252.19300000000001</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>30172.299706</v>
+        <v>30172.299706000002</v>
       </c>
       <c r="AU13" s="1">
-        <v>8.381194</v>
+        <v>8.3811940000000007</v>
       </c>
       <c r="AV13" s="1">
-        <v>1429.500000</v>
+        <v>1429.5</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.092000</v>
+        <v>-312.09199999999998</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>30183.240461</v>
+        <v>30183.240461000001</v>
       </c>
       <c r="AZ13" s="1">
         <v>8.384233</v>
       </c>
       <c r="BA13" s="1">
-        <v>1448.820000</v>
+        <v>1448.82</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.164000</v>
+        <v>-364.16399999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>30194.646468</v>
+        <v>30194.646467999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>8.387402</v>
+        <v>8.3874019999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1533.810000</v>
+        <v>1533.81</v>
       </c>
       <c r="BG13" s="1">
-        <v>-612.214000</v>
+        <v>-612.21400000000006</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>30205.966623</v>
       </c>
       <c r="BJ13" s="1">
-        <v>8.390546</v>
+        <v>8.3905460000000005</v>
       </c>
       <c r="BK13" s="1">
-        <v>1687.490000</v>
+        <v>1687.49</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1057.270000</v>
+        <v>-1057.27</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>30216.984752</v>
       </c>
       <c r="BO13" s="1">
-        <v>8.393607</v>
+        <v>8.3936069999999994</v>
       </c>
       <c r="BP13" s="1">
-        <v>1980.950000</v>
+        <v>1980.95</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1828.840000</v>
+        <v>-1828.84</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>30227.952819</v>
+        <v>30227.952818999998</v>
       </c>
       <c r="BT13" s="1">
-        <v>8.396654</v>
+        <v>8.3966539999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>2367.840000</v>
+        <v>2367.84</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2722.590000</v>
+        <v>-2722.59</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>30239.066643</v>
+        <v>30239.066642999998</v>
       </c>
       <c r="BY13" s="1">
-        <v>8.399741</v>
+        <v>8.3997410000000006</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2851.080000</v>
+        <v>2851.08</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3693.570000</v>
+        <v>-3693.57</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>30251.123395</v>
+        <v>30251.123394999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>8.403090</v>
+        <v>8.4030900000000006</v>
       </c>
       <c r="CE13" s="1">
-        <v>4284.140000</v>
+        <v>4284.1400000000003</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6043.900000</v>
+        <v>-6043.9</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>30079.209558</v>
+        <v>30079.209557999999</v>
       </c>
       <c r="B14" s="1">
-        <v>8.355336</v>
+        <v>8.3553359999999994</v>
       </c>
       <c r="C14" s="1">
-        <v>1247.720000</v>
+        <v>1247.72</v>
       </c>
       <c r="D14" s="1">
-        <v>-308.960000</v>
+        <v>-308.95999999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>30089.610168</v>
+        <v>30089.610167999999</v>
       </c>
       <c r="G14" s="1">
-        <v>8.358225</v>
+        <v>8.3582249999999991</v>
       </c>
       <c r="H14" s="1">
-        <v>1272.980000</v>
+        <v>1272.98</v>
       </c>
       <c r="I14" s="1">
-        <v>-265.911000</v>
+        <v>-265.911</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>30100.142715</v>
+        <v>30100.142715000002</v>
       </c>
       <c r="L14" s="1">
-        <v>8.361151</v>
+        <v>8.3611509999999996</v>
       </c>
       <c r="M14" s="1">
-        <v>1307.950000</v>
+        <v>1307.95</v>
       </c>
       <c r="N14" s="1">
-        <v>-203.341000</v>
+        <v>-203.34100000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>30110.676222</v>
+        <v>30110.676221999998</v>
       </c>
       <c r="Q14" s="1">
         <v>8.364077</v>
       </c>
       <c r="R14" s="1">
-        <v>1320.030000</v>
+        <v>1320.03</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.919000</v>
+        <v>-184.91900000000001</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>30120.897316</v>
+        <v>30120.897315999999</v>
       </c>
       <c r="V14" s="1">
-        <v>8.366916</v>
+        <v>8.3669159999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>1333.050000</v>
+        <v>1333.05</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.084000</v>
+        <v>-171.084</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>30131.148098</v>
+        <v>30131.148098000001</v>
       </c>
       <c r="AA14" s="1">
-        <v>8.369763</v>
+        <v>8.3697630000000007</v>
       </c>
       <c r="AB14" s="1">
-        <v>1350.100000</v>
+        <v>1350.1</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.024000</v>
+        <v>-169.024</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>30141.271444</v>
+        <v>30141.271444000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>8.372575</v>
+        <v>8.3725749999999994</v>
       </c>
       <c r="AG14" s="1">
-        <v>1362.910000</v>
+        <v>1362.91</v>
       </c>
       <c r="AH14" s="1">
-        <v>-178.605000</v>
+        <v>-178.60499999999999</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>30151.569910</v>
+        <v>30151.569909999998</v>
       </c>
       <c r="AK14" s="1">
-        <v>8.375436</v>
+        <v>8.3754360000000005</v>
       </c>
       <c r="AL14" s="1">
-        <v>1383.410000</v>
+        <v>1383.41</v>
       </c>
       <c r="AM14" s="1">
-        <v>-208.334000</v>
+        <v>-208.334</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>30161.940729</v>
+        <v>30161.940729000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>8.378317</v>
+        <v>8.3783169999999991</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1405.020000</v>
+        <v>1405.02</v>
       </c>
       <c r="AR14" s="1">
-        <v>-252.200000</v>
+        <v>-252.2</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>30172.608188</v>
+        <v>30172.608187999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>8.381280</v>
+        <v>8.3812800000000003</v>
       </c>
       <c r="AV14" s="1">
-        <v>1429.540000</v>
+        <v>1429.54</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.081000</v>
+        <v>-312.08100000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>30183.602013</v>
       </c>
       <c r="AZ14" s="1">
-        <v>8.384334</v>
+        <v>8.3843340000000008</v>
       </c>
       <c r="BA14" s="1">
-        <v>1448.810000</v>
+        <v>1448.81</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.138000</v>
+        <v>-364.13799999999998</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>30195.038270</v>
+        <v>30195.038270000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>8.387511</v>
+        <v>8.3875109999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1533.800000</v>
+        <v>1533.8</v>
       </c>
       <c r="BG14" s="1">
-        <v>-612.205000</v>
+        <v>-612.20500000000004</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>30206.344574</v>
+        <v>30206.344573999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>8.390651</v>
+        <v>8.3906510000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1687.480000</v>
+        <v>1687.48</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1057.250000</v>
+        <v>-1057.25</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>30217.799182</v>
+        <v>30217.799181999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>8.393833</v>
+        <v>8.3938330000000008</v>
       </c>
       <c r="BP14" s="1">
-        <v>1980.810000</v>
+        <v>1980.81</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1828.780000</v>
+        <v>-1828.78</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>30228.361985</v>
       </c>
       <c r="BT14" s="1">
-        <v>8.396767</v>
+        <v>8.3967670000000005</v>
       </c>
       <c r="BU14" s="1">
-        <v>2367.850000</v>
+        <v>2367.85</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2722.790000</v>
+        <v>-2722.79</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>30239.485801</v>
+        <v>30239.485800999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>8.399857</v>
+        <v>8.3998570000000008</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2850.630000</v>
+        <v>2850.63</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3693.270000</v>
+        <v>-3693.27</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>30251.663043</v>
       </c>
       <c r="CD14" s="1">
-        <v>8.403240</v>
+        <v>8.4032400000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>4263.310000</v>
+        <v>4263.3100000000004</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6030.860000</v>
+        <v>-6030.86</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>30079.576069</v>
+        <v>30079.576068999999</v>
       </c>
       <c r="B15" s="1">
-        <v>8.355438</v>
+        <v>8.3554379999999995</v>
       </c>
       <c r="C15" s="1">
-        <v>1248.120000</v>
+        <v>1248.1199999999999</v>
       </c>
       <c r="D15" s="1">
-        <v>-308.561000</v>
+        <v>-308.56099999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>30089.989575</v>
       </c>
       <c r="G15" s="1">
-        <v>8.358330</v>
+        <v>8.3583300000000005</v>
       </c>
       <c r="H15" s="1">
-        <v>1273.540000</v>
+        <v>1273.54</v>
       </c>
       <c r="I15" s="1">
-        <v>-266.753000</v>
+        <v>-266.75299999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>30100.487433</v>
+        <v>30100.487432999998</v>
       </c>
       <c r="L15" s="1">
-        <v>8.361247</v>
+        <v>8.3612470000000005</v>
       </c>
       <c r="M15" s="1">
-        <v>1308.190000</v>
+        <v>1308.19</v>
       </c>
       <c r="N15" s="1">
-        <v>-203.131000</v>
+        <v>-203.131</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>30111.031890</v>
+        <v>30111.031889999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>8.364176</v>
+        <v>8.3641760000000005</v>
       </c>
       <c r="R15" s="1">
-        <v>1319.930000</v>
+        <v>1319.93</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.864000</v>
+        <v>-184.864</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>30121.241006</v>
       </c>
       <c r="V15" s="1">
-        <v>8.367011</v>
+        <v>8.3670109999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>1333.000000</v>
+        <v>1333</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.060000</v>
+        <v>-171.06</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>30131.566754</v>
+        <v>30131.566753999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>8.369880</v>
+        <v>8.3698800000000002</v>
       </c>
       <c r="AB15" s="1">
-        <v>1349.870000</v>
+        <v>1349.87</v>
       </c>
       <c r="AC15" s="1">
-        <v>-168.852000</v>
+        <v>-168.852</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>30141.701972</v>
+        <v>30141.701971999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>8.372695</v>
+        <v>8.3726950000000002</v>
       </c>
       <c r="AG15" s="1">
-        <v>1362.810000</v>
+        <v>1362.81</v>
       </c>
       <c r="AH15" s="1">
-        <v>-178.610000</v>
+        <v>-178.61</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>30151.848161</v>
+        <v>30151.848161000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>8.375513</v>
+        <v>8.3755129999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>1383.410000</v>
+        <v>1383.41</v>
       </c>
       <c r="AM15" s="1">
-        <v>-208.375000</v>
+        <v>-208.375</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>30162.297879</v>
+        <v>30162.297879000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>8.378416</v>
+        <v>8.3784159999999996</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1405.020000</v>
+        <v>1405.02</v>
       </c>
       <c r="AR15" s="1">
-        <v>-252.191000</v>
+        <v>-252.191</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>30172.973244</v>
+        <v>30172.973244000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>8.381381</v>
+        <v>8.3813809999999993</v>
       </c>
       <c r="AV15" s="1">
-        <v>1429.550000</v>
+        <v>1429.55</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.106000</v>
+        <v>-312.10599999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>30183.958139</v>
+        <v>30183.958138999998</v>
       </c>
       <c r="AZ15" s="1">
-        <v>8.384433</v>
+        <v>8.3844329999999996</v>
       </c>
       <c r="BA15" s="1">
-        <v>1448.830000</v>
+        <v>1448.83</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.114000</v>
+        <v>-364.11399999999998</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>30195.769879</v>
+        <v>30195.769878999999</v>
       </c>
       <c r="BE15" s="1">
-        <v>8.387714</v>
+        <v>8.3877140000000008</v>
       </c>
       <c r="BF15" s="1">
-        <v>1533.850000</v>
+        <v>1533.85</v>
       </c>
       <c r="BG15" s="1">
-        <v>-612.181000</v>
+        <v>-612.18100000000004</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>30207.093037</v>
+        <v>30207.093036999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>8.390859</v>
+        <v>8.3908590000000007</v>
       </c>
       <c r="BK15" s="1">
-        <v>1687.460000</v>
+        <v>1687.46</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1057.240000</v>
+        <v>-1057.24</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>30218.215326</v>
+        <v>30218.215326000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>8.393949</v>
+        <v>8.3939489999999992</v>
       </c>
       <c r="BP15" s="1">
-        <v>1980.800000</v>
+        <v>1980.8</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1828.810000</v>
+        <v>-1828.81</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>30228.774690</v>
+        <v>30228.774689999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>8.396882</v>
+        <v>8.3968819999999997</v>
       </c>
       <c r="BU15" s="1">
-        <v>2367.900000</v>
+        <v>2367.9</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2722.480000</v>
+        <v>-2722.48</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>30239.910834</v>
+        <v>30239.910833999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>8.399975</v>
+        <v>8.3999749999999995</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2850.740000</v>
+        <v>2850.74</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3693.680000</v>
+        <v>-3693.68</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>30252.508721</v>
+        <v>30252.508720999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>8.403475</v>
+        <v>8.4034750000000003</v>
       </c>
       <c r="CE15" s="1">
-        <v>4283.060000</v>
+        <v>4283.0600000000004</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6034.880000</v>
+        <v>-6034.88</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>30079.919560</v>
+        <v>30079.919559999998</v>
       </c>
       <c r="B16" s="1">
-        <v>8.355533</v>
+        <v>8.3555329999999994</v>
       </c>
       <c r="C16" s="1">
-        <v>1248.230000</v>
+        <v>1248.23</v>
       </c>
       <c r="D16" s="1">
-        <v>-308.685000</v>
+        <v>-308.685</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>30090.341240</v>
+        <v>30090.341240000002</v>
       </c>
       <c r="G16" s="1">
         <v>8.358428</v>
       </c>
       <c r="H16" s="1">
-        <v>1273.550000</v>
+        <v>1273.55</v>
       </c>
       <c r="I16" s="1">
-        <v>-265.753000</v>
+        <v>-265.75299999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>30100.832617</v>
       </c>
       <c r="L16" s="1">
-        <v>8.361342</v>
+        <v>8.3613420000000005</v>
       </c>
       <c r="M16" s="1">
-        <v>1308.070000</v>
+        <v>1308.07</v>
       </c>
       <c r="N16" s="1">
-        <v>-203.342000</v>
+        <v>-203.34200000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>30111.455933</v>
+        <v>30111.455933000001</v>
       </c>
       <c r="Q16" s="1">
         <v>8.364293</v>
       </c>
       <c r="R16" s="1">
-        <v>1319.910000</v>
+        <v>1319.91</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.818000</v>
+        <v>-184.81800000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>30121.671534</v>
+        <v>30121.671534000001</v>
       </c>
       <c r="V16" s="1">
-        <v>8.367131</v>
+        <v>8.3671310000000005</v>
       </c>
       <c r="W16" s="1">
-        <v>1332.970000</v>
+        <v>1332.97</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.084000</v>
+        <v>-171.084</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>30131.848231</v>
       </c>
       <c r="AA16" s="1">
-        <v>8.369958</v>
+        <v>8.3699580000000005</v>
       </c>
       <c r="AB16" s="1">
-        <v>1349.940000</v>
+        <v>1349.94</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.026000</v>
+        <v>-169.02600000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>30141.982212</v>
+        <v>30141.982211999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>8.372773</v>
+        <v>8.3727730000000005</v>
       </c>
       <c r="AG16" s="1">
-        <v>1362.810000</v>
+        <v>1362.81</v>
       </c>
       <c r="AH16" s="1">
-        <v>-178.516000</v>
+        <v>-178.51599999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>30152.199830</v>
+        <v>30152.199830000001</v>
       </c>
       <c r="AK16" s="1">
-        <v>8.375611</v>
+        <v>8.3756109999999993</v>
       </c>
       <c r="AL16" s="1">
-        <v>1383.390000</v>
+        <v>1383.39</v>
       </c>
       <c r="AM16" s="1">
-        <v>-208.359000</v>
+        <v>-208.35900000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>30162.661417</v>
+        <v>30162.661416999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>8.378517</v>
+        <v>8.3785170000000004</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1405.040000</v>
+        <v>1405.04</v>
       </c>
       <c r="AR16" s="1">
-        <v>-252.171000</v>
+        <v>-252.17099999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>30173.335355</v>
+        <v>30173.335354999999</v>
       </c>
       <c r="AU16" s="1">
-        <v>8.381482</v>
+        <v>8.3814820000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1429.550000</v>
+        <v>1429.55</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.074000</v>
+        <v>-312.07400000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>30184.674858</v>
+        <v>30184.674857999998</v>
       </c>
       <c r="AZ16" s="1">
-        <v>8.384632</v>
+        <v>8.3846319999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1448.820000</v>
+        <v>1448.82</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.120000</v>
+        <v>-364.12</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>30196.148347</v>
+        <v>30196.148346999998</v>
       </c>
       <c r="BE16" s="1">
-        <v>8.387819</v>
+        <v>8.3878190000000004</v>
       </c>
       <c r="BF16" s="1">
-        <v>1533.810000</v>
+        <v>1533.81</v>
       </c>
       <c r="BG16" s="1">
-        <v>-612.202000</v>
+        <v>-612.202</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>30207.467021</v>
       </c>
       <c r="BJ16" s="1">
-        <v>8.390963</v>
+        <v>8.3909629999999993</v>
       </c>
       <c r="BK16" s="1">
-        <v>1687.490000</v>
+        <v>1687.49</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1057.260000</v>
+        <v>-1057.26</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>30218.615101</v>
+        <v>30218.615100999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>8.394060</v>
+        <v>8.3940599999999996</v>
       </c>
       <c r="BP16" s="1">
-        <v>1980.840000</v>
+        <v>1980.84</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1828.930000</v>
+        <v>-1828.93</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>30229.506752</v>
+        <v>30229.506752000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>8.397085</v>
+        <v>8.3970850000000006</v>
       </c>
       <c r="BU16" s="1">
-        <v>2367.650000</v>
+        <v>2367.65</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2722.300000</v>
+        <v>-2722.3</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>30240.632017</v>
       </c>
       <c r="BY16" s="1">
-        <v>8.400176</v>
+        <v>8.4001760000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2851.030000</v>
+        <v>2851.03</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3693.130000</v>
+        <v>-3693.13</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>30252.742832</v>
       </c>
       <c r="CD16" s="1">
-        <v>8.403540</v>
+        <v>8.4035399999999996</v>
       </c>
       <c r="CE16" s="1">
-        <v>4280.740000</v>
+        <v>4280.74</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6035.780000</v>
+        <v>-6035.78</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>30080.257574</v>
+        <v>30080.257573999999</v>
       </c>
       <c r="B17" s="1">
-        <v>8.355627</v>
+        <v>8.3556270000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1248.150000</v>
+        <v>1248.1500000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-308.714000</v>
+        <v>-308.714</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>30090.678518</v>
+        <v>30090.678518000001</v>
       </c>
       <c r="G17" s="1">
-        <v>8.358522</v>
+        <v>8.3585220000000007</v>
       </c>
       <c r="H17" s="1">
-        <v>1272.830000</v>
+        <v>1272.83</v>
       </c>
       <c r="I17" s="1">
-        <v>-266.166000</v>
+        <v>-266.166</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>30101.258680</v>
+        <v>30101.258679999999</v>
       </c>
       <c r="L17" s="1">
-        <v>8.361461</v>
+        <v>8.3614610000000003</v>
       </c>
       <c r="M17" s="1">
-        <v>1308.110000</v>
+        <v>1308.1099999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-203.435000</v>
+        <v>-203.435</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>30111.742123</v>
       </c>
       <c r="Q17" s="1">
-        <v>8.364373</v>
+        <v>8.3643730000000005</v>
       </c>
       <c r="R17" s="1">
-        <v>1319.960000</v>
+        <v>1319.96</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.778000</v>
+        <v>-184.77799999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>30121.951806</v>
+        <v>30121.951806000001</v>
       </c>
       <c r="V17" s="1">
-        <v>8.367209</v>
+        <v>8.3672090000000008</v>
       </c>
       <c r="W17" s="1">
-        <v>1332.900000</v>
+        <v>1332.9</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.167000</v>
+        <v>-171.167</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>30132.195189</v>
+        <v>30132.195188999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>8.370054</v>
+        <v>8.3700539999999997</v>
       </c>
       <c r="AB17" s="1">
-        <v>1350.020000</v>
+        <v>1350.02</v>
       </c>
       <c r="AC17" s="1">
-        <v>-168.804000</v>
+        <v>-168.804</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>30142.324978</v>
+        <v>30142.324978000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>8.372868</v>
+        <v>8.3728680000000004</v>
       </c>
       <c r="AG17" s="1">
-        <v>1362.860000</v>
+        <v>1362.86</v>
       </c>
       <c r="AH17" s="1">
-        <v>-178.600000</v>
+        <v>-178.6</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>30152.548022</v>
+        <v>30152.548021999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>8.375708</v>
+        <v>8.3757079999999995</v>
       </c>
       <c r="AL17" s="1">
-        <v>1383.390000</v>
+        <v>1383.39</v>
       </c>
       <c r="AM17" s="1">
-        <v>-208.360000</v>
+        <v>-208.36</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>30163.379622</v>
@@ -4456,1283 +4872,1283 @@
         <v>8.378717</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1405.020000</v>
+        <v>1405.02</v>
       </c>
       <c r="AR17" s="1">
-        <v>-252.199000</v>
+        <v>-252.19900000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>30174.070889</v>
+        <v>30174.070888999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>8.381686</v>
+        <v>8.3816860000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>1429.540000</v>
+        <v>1429.54</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.104000</v>
+        <v>-312.10399999999998</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>30185.060250</v>
+        <v>30185.060249999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>8.384739</v>
+        <v>8.3847389999999997</v>
       </c>
       <c r="BA17" s="1">
-        <v>1448.810000</v>
+        <v>1448.81</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.137000</v>
+        <v>-364.137</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>30196.507916</v>
+        <v>30196.507915999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>8.387919</v>
+        <v>8.3879190000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1533.840000</v>
+        <v>1533.84</v>
       </c>
       <c r="BG17" s="1">
-        <v>-612.151000</v>
+        <v>-612.15099999999995</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>30207.845500</v>
+        <v>30207.845499999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>8.391068</v>
+        <v>8.3910680000000006</v>
       </c>
       <c r="BK17" s="1">
-        <v>1687.430000</v>
+        <v>1687.43</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1057.260000</v>
+        <v>-1057.26</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>30219.333841</v>
       </c>
       <c r="BO17" s="1">
-        <v>8.394259</v>
+        <v>8.3942589999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1980.940000</v>
+        <v>1980.94</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1828.650000</v>
+        <v>-1828.65</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>30229.624801</v>
+        <v>30229.624801000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>8.397118</v>
+        <v>8.3971180000000007</v>
       </c>
       <c r="BU17" s="1">
-        <v>2367.640000</v>
+        <v>2367.64</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2722.630000</v>
+        <v>-2722.63</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>30240.752546</v>
       </c>
       <c r="BY17" s="1">
-        <v>8.400209</v>
+        <v>8.4002090000000003</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2851.030000</v>
+        <v>2851.03</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3693.620000</v>
+        <v>-3693.62</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>30253.257712</v>
+        <v>30253.257711999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>8.403683</v>
+        <v>8.4036829999999991</v>
       </c>
       <c r="CE17" s="1">
-        <v>4266.580000</v>
+        <v>4266.58</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6029.010000</v>
+        <v>-6029.01</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>30080.688127</v>
+        <v>30080.688127000001</v>
       </c>
       <c r="B18" s="1">
-        <v>8.355747</v>
+        <v>8.3557469999999991</v>
       </c>
       <c r="C18" s="1">
-        <v>1247.690000</v>
+        <v>1247.69</v>
       </c>
       <c r="D18" s="1">
-        <v>-308.809000</v>
+        <v>-308.80900000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>30091.100614</v>
+        <v>30091.100613999999</v>
       </c>
       <c r="G18" s="1">
-        <v>8.358639</v>
+        <v>8.3586390000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1273.630000</v>
+        <v>1273.6300000000001</v>
       </c>
       <c r="I18" s="1">
-        <v>-266.612000</v>
+        <v>-266.61200000000002</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>30101.540409</v>
+        <v>30101.540409000001</v>
       </c>
       <c r="L18" s="1">
-        <v>8.361539</v>
+        <v>8.3615390000000005</v>
       </c>
       <c r="M18" s="1">
-        <v>1308.250000</v>
+        <v>1308.25</v>
       </c>
       <c r="N18" s="1">
-        <v>-203.273000</v>
+        <v>-203.273</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>30112.093329</v>
+        <v>30112.093328999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>8.364470</v>
+        <v>8.3644700000000007</v>
       </c>
       <c r="R18" s="1">
-        <v>1320.060000</v>
+        <v>1320.06</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.809000</v>
+        <v>-184.809</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>30122.295005</v>
       </c>
       <c r="V18" s="1">
-        <v>8.367304</v>
+        <v>8.3673040000000007</v>
       </c>
       <c r="W18" s="1">
-        <v>1332.950000</v>
+        <v>1332.95</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.125000</v>
+        <v>-171.125</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>30132.544865</v>
       </c>
       <c r="AA18" s="1">
-        <v>8.370151</v>
+        <v>8.3701509999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1350.120000</v>
+        <v>1350.12</v>
       </c>
       <c r="AC18" s="1">
-        <v>-168.968000</v>
+        <v>-168.96799999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>30142.669204</v>
+        <v>30142.669204000002</v>
       </c>
       <c r="AF18" s="1">
-        <v>8.372964</v>
+        <v>8.3729639999999996</v>
       </c>
       <c r="AG18" s="1">
-        <v>1362.900000</v>
+        <v>1362.9</v>
       </c>
       <c r="AH18" s="1">
-        <v>-178.557000</v>
+        <v>-178.55699999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>30153.245364</v>
+        <v>30153.245363999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>8.375901</v>
+        <v>8.3759010000000007</v>
       </c>
       <c r="AL18" s="1">
-        <v>1383.430000</v>
+        <v>1383.43</v>
       </c>
       <c r="AM18" s="1">
-        <v>-208.332000</v>
+        <v>-208.33199999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>30163.742198</v>
       </c>
       <c r="AP18" s="1">
-        <v>8.378817</v>
+        <v>8.3788169999999997</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1405.010000</v>
+        <v>1405.01</v>
       </c>
       <c r="AR18" s="1">
-        <v>-252.204000</v>
+        <v>-252.20400000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>30174.451816</v>
+        <v>30174.451816000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>8.381792</v>
+        <v>8.3817920000000008</v>
       </c>
       <c r="AV18" s="1">
-        <v>1429.540000</v>
+        <v>1429.54</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.098000</v>
+        <v>-312.09800000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>30185.438201</v>
+        <v>30185.438201000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>8.384844</v>
+        <v>8.3848439999999993</v>
       </c>
       <c r="BA18" s="1">
-        <v>1448.810000</v>
+        <v>1448.81</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.125000</v>
+        <v>-364.125</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>30197.176522</v>
+        <v>30197.176522000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>8.388105</v>
+        <v>8.3881049999999995</v>
       </c>
       <c r="BF18" s="1">
-        <v>1533.830000</v>
+        <v>1533.83</v>
       </c>
       <c r="BG18" s="1">
-        <v>-612.197000</v>
+        <v>-612.197</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>30208.524648</v>
+        <v>30208.524647999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>8.391257</v>
+        <v>8.3912569999999995</v>
       </c>
       <c r="BK18" s="1">
-        <v>1687.490000</v>
+        <v>1687.49</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1057.110000</v>
+        <v>-1057.1099999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>30219.450892</v>
+        <v>30219.450892000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>8.394292</v>
+        <v>8.3942920000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1980.850000</v>
+        <v>1980.85</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1828.670000</v>
+        <v>-1828.67</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>30230.042430</v>
+        <v>30230.042430000001</v>
       </c>
       <c r="BT18" s="1">
-        <v>8.397234</v>
+        <v>8.3972339999999992</v>
       </c>
       <c r="BU18" s="1">
-        <v>2367.610000</v>
+        <v>2367.61</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2722.360000</v>
+        <v>-2722.36</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>30241.188745</v>
+        <v>30241.188744999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>8.400330</v>
+        <v>8.4003300000000003</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2850.700000</v>
+        <v>2850.7</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3692.970000</v>
+        <v>-3692.97</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>30253.778977</v>
+        <v>30253.778977000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>8.403827</v>
+        <v>8.4038269999999997</v>
       </c>
       <c r="CE18" s="1">
-        <v>4274.400000</v>
+        <v>4274.3999999999996</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6049.840000</v>
+        <v>-6049.84</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>30080.959940</v>
+        <v>30080.959940000001</v>
       </c>
       <c r="B19" s="1">
-        <v>8.355822</v>
+        <v>8.3558219999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1247.750000</v>
+        <v>1247.75</v>
       </c>
       <c r="D19" s="1">
-        <v>-308.634000</v>
+        <v>-308.63400000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>30091.368483</v>
+        <v>30091.368482999998</v>
       </c>
       <c r="G19" s="1">
-        <v>8.358713</v>
+        <v>8.3587129999999998</v>
       </c>
       <c r="H19" s="1">
-        <v>1273.280000</v>
+        <v>1273.28</v>
       </c>
       <c r="I19" s="1">
-        <v>-266.058000</v>
+        <v>-266.05799999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>30101.888103</v>
+        <v>30101.888103000001</v>
       </c>
       <c r="L19" s="1">
-        <v>8.361636</v>
+        <v>8.3616360000000007</v>
       </c>
       <c r="M19" s="1">
-        <v>1308.250000</v>
+        <v>1308.25</v>
       </c>
       <c r="N19" s="1">
-        <v>-203.390000</v>
+        <v>-203.39</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>30112.440025</v>
       </c>
       <c r="Q19" s="1">
-        <v>8.364567</v>
+        <v>8.3645669999999992</v>
       </c>
       <c r="R19" s="1">
-        <v>1320.110000</v>
+        <v>1320.11</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.875000</v>
+        <v>-184.875</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>30122.638766</v>
       </c>
       <c r="V19" s="1">
-        <v>8.367400</v>
+        <v>8.3673999999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1332.910000</v>
+        <v>1332.91</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.076000</v>
+        <v>-171.07599999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>30133.241216</v>
+        <v>30133.241215999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>8.370345</v>
+        <v>8.3703450000000004</v>
       </c>
       <c r="AB19" s="1">
-        <v>1350.150000</v>
+        <v>1350.15</v>
       </c>
       <c r="AC19" s="1">
-        <v>-168.939000</v>
+        <v>-168.93899999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>30143.356662</v>
+        <v>30143.356661999998</v>
       </c>
       <c r="AF19" s="1">
-        <v>8.373155</v>
+        <v>8.3731550000000006</v>
       </c>
       <c r="AG19" s="1">
-        <v>1362.850000</v>
+        <v>1362.85</v>
       </c>
       <c r="AH19" s="1">
-        <v>-178.560000</v>
+        <v>-178.56</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>30153.594549</v>
+        <v>30153.594549000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>8.375998</v>
+        <v>8.3759979999999992</v>
       </c>
       <c r="AL19" s="1">
-        <v>1383.420000</v>
+        <v>1383.42</v>
       </c>
       <c r="AM19" s="1">
-        <v>-208.407000</v>
+        <v>-208.40700000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>30164.101832</v>
       </c>
       <c r="AP19" s="1">
-        <v>8.378917</v>
+        <v>8.3789169999999995</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1405.010000</v>
+        <v>1405.01</v>
       </c>
       <c r="AR19" s="1">
-        <v>-252.171000</v>
+        <v>-252.17099999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>30174.814888</v>
+        <v>30174.814888000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>8.381893</v>
+        <v>8.3818929999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>1429.490000</v>
+        <v>1429.49</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.101000</v>
+        <v>-312.101</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>30186.112266</v>
       </c>
       <c r="AZ19" s="1">
-        <v>8.385031</v>
+        <v>8.3850309999999997</v>
       </c>
       <c r="BA19" s="1">
-        <v>1448.840000</v>
+        <v>1448.84</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.126000</v>
+        <v>-364.12599999999998</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>30197.625712</v>
+        <v>30197.625712000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>8.388229</v>
+        <v>8.3882290000000008</v>
       </c>
       <c r="BF19" s="1">
-        <v>1533.800000</v>
+        <v>1533.8</v>
       </c>
       <c r="BG19" s="1">
-        <v>-612.179000</v>
+        <v>-612.17899999999997</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>30208.971386</v>
+        <v>30208.971386000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>8.391381</v>
+        <v>8.3913810000000009</v>
       </c>
       <c r="BK19" s="1">
-        <v>1687.440000</v>
+        <v>1687.44</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1057.180000</v>
+        <v>-1057.18</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>30219.857093</v>
+        <v>30219.857092999999</v>
       </c>
       <c r="BO19" s="1">
-        <v>8.394405</v>
+        <v>8.3944050000000008</v>
       </c>
       <c r="BP19" s="1">
-        <v>1980.780000</v>
+        <v>1980.78</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1828.680000</v>
+        <v>-1828.68</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>30230.472960</v>
+        <v>30230.472959999999</v>
       </c>
       <c r="BT19" s="1">
         <v>8.397354</v>
       </c>
       <c r="BU19" s="1">
-        <v>2367.560000</v>
+        <v>2367.56</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2722.250000</v>
+        <v>-2722.25</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>30241.611119</v>
+        <v>30241.611119000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>8.400448</v>
+        <v>8.4004480000000008</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2850.550000</v>
+        <v>2850.55</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3693.640000</v>
+        <v>-3693.64</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>30254.316142</v>
       </c>
       <c r="CD19" s="1">
-        <v>8.403977</v>
+        <v>8.4039769999999994</v>
       </c>
       <c r="CE19" s="1">
-        <v>4274.190000</v>
+        <v>4274.1899999999996</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6027.550000</v>
+        <v>-6027.55</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>30081.300163</v>
       </c>
       <c r="B20" s="1">
-        <v>8.355917</v>
+        <v>8.3559169999999998</v>
       </c>
       <c r="C20" s="1">
-        <v>1247.680000</v>
+        <v>1247.68</v>
       </c>
       <c r="D20" s="1">
-        <v>-308.828000</v>
+        <v>-308.82799999999997</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>30091.712182</v>
+        <v>30091.712181999999</v>
       </c>
       <c r="G20" s="1">
-        <v>8.358809</v>
+        <v>8.3588090000000008</v>
       </c>
       <c r="H20" s="1">
-        <v>1272.660000</v>
+        <v>1272.6600000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-266.189000</v>
+        <v>-266.18900000000002</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>30102.234079</v>
+        <v>30102.234079000002</v>
       </c>
       <c r="L20" s="1">
-        <v>8.361732</v>
+        <v>8.3617319999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1308.380000</v>
+        <v>1308.3800000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-203.159000</v>
+        <v>-203.15899999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>30113.138875</v>
+        <v>30113.138875000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>8.364761</v>
+        <v>8.3647609999999997</v>
       </c>
       <c r="R20" s="1">
-        <v>1320.030000</v>
+        <v>1320.03</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.912000</v>
+        <v>-184.91200000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>30123.323742</v>
       </c>
       <c r="V20" s="1">
-        <v>8.367590</v>
+        <v>8.3675899999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1332.910000</v>
+        <v>1332.91</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.221000</v>
+        <v>-171.221</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>30133.592413</v>
+        <v>30133.592412999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>8.370442</v>
+        <v>8.3704420000000006</v>
       </c>
       <c r="AB20" s="1">
-        <v>1350.220000</v>
+        <v>1350.22</v>
       </c>
       <c r="AC20" s="1">
-        <v>-168.950000</v>
+        <v>-168.95</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>30143.701840</v>
+        <v>30143.701840000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>8.373251</v>
+        <v>8.3732509999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1362.830000</v>
+        <v>1362.83</v>
       </c>
       <c r="AH20" s="1">
-        <v>-178.569000</v>
+        <v>-178.56899999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>30153.942770</v>
+        <v>30153.942770000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>8.376095</v>
+        <v>8.3760949999999994</v>
       </c>
       <c r="AL20" s="1">
-        <v>1383.370000</v>
+        <v>1383.37</v>
       </c>
       <c r="AM20" s="1">
-        <v>-208.373000</v>
+        <v>-208.37299999999999</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>30164.765941</v>
+        <v>30164.765941000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>8.379102</v>
+        <v>8.3791019999999996</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1405.000000</v>
+        <v>1405</v>
       </c>
       <c r="AR20" s="1">
-        <v>-252.163000</v>
+        <v>-252.16300000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>30175.489448</v>
       </c>
       <c r="AU20" s="1">
-        <v>8.382080</v>
+        <v>8.3820800000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>1429.560000</v>
+        <v>1429.56</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.090000</v>
+        <v>-312.08999999999997</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>30186.524936</v>
+        <v>30186.524936000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>8.385146</v>
+        <v>8.3851460000000007</v>
       </c>
       <c r="BA20" s="1">
-        <v>1448.810000</v>
+        <v>1448.81</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.142000</v>
+        <v>-364.142</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>30197.987977</v>
+        <v>30197.987977000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.388330</v>
+        <v>8.3883299999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1533.780000</v>
+        <v>1533.78</v>
       </c>
       <c r="BG20" s="1">
-        <v>-612.194000</v>
+        <v>-612.19399999999996</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>30209.346859</v>
+        <v>30209.346859000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>8.391485</v>
+        <v>8.3914849999999994</v>
       </c>
       <c r="BK20" s="1">
-        <v>1687.480000</v>
+        <v>1687.48</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1057.130000</v>
+        <v>-1057.1300000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>30220.252923</v>
       </c>
       <c r="BO20" s="1">
-        <v>8.394515</v>
+        <v>8.3945150000000002</v>
       </c>
       <c r="BP20" s="1">
-        <v>1980.690000</v>
+        <v>1980.69</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1828.670000</v>
+        <v>-1828.67</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>30230.883150</v>
+        <v>30230.883150000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>8.397468</v>
+        <v>8.3974679999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2367.490000</v>
+        <v>2367.4899999999998</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2722.320000</v>
+        <v>-2722.32</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>30242.038336</v>
+        <v>30242.038336000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>8.400566</v>
+        <v>8.4005659999999995</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2851.000000</v>
+        <v>2851</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3693.000000</v>
+        <v>-3693</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>30254.855823</v>
+        <v>30254.855823000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>8.404127</v>
+        <v>8.4041270000000008</v>
       </c>
       <c r="CE20" s="1">
-        <v>4261.260000</v>
+        <v>4261.26</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6045.810000</v>
+        <v>-6045.81</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>30081.642435</v>
+        <v>30081.642435000002</v>
       </c>
       <c r="B21" s="1">
-        <v>8.356012</v>
+        <v>8.3560119999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>1248.050000</v>
+        <v>1248.05</v>
       </c>
       <c r="D21" s="1">
-        <v>-309.111000</v>
+        <v>-309.11099999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>30092.060374</v>
+        <v>30092.060374000001</v>
       </c>
       <c r="G21" s="1">
-        <v>8.358906</v>
+        <v>8.3589059999999993</v>
       </c>
       <c r="H21" s="1">
-        <v>1273.580000</v>
+        <v>1273.58</v>
       </c>
       <c r="I21" s="1">
-        <v>-267.156000</v>
+        <v>-267.15600000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>30102.927750</v>
+        <v>30102.927749999999</v>
       </c>
       <c r="L21" s="1">
-        <v>8.361924</v>
+        <v>8.3619240000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1308.050000</v>
+        <v>1308.05</v>
       </c>
       <c r="N21" s="1">
-        <v>-203.217000</v>
+        <v>-203.21700000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>30113.488074</v>
+        <v>30113.488074000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>8.364858</v>
+        <v>8.3648579999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1319.930000</v>
+        <v>1319.93</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.870000</v>
+        <v>-184.87</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>30123.669419</v>
+        <v>30123.669419000002</v>
       </c>
       <c r="V21" s="1">
-        <v>8.367686</v>
+        <v>8.3676860000000008</v>
       </c>
       <c r="W21" s="1">
-        <v>1332.820000</v>
+        <v>1332.82</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.079000</v>
+        <v>-171.07900000000001</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>30133.939086</v>
+        <v>30133.939085999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>8.370539</v>
+        <v>8.3705390000000008</v>
       </c>
       <c r="AB21" s="1">
-        <v>1350.280000</v>
+        <v>1350.28</v>
       </c>
       <c r="AC21" s="1">
-        <v>-168.788000</v>
+        <v>-168.78800000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>30144.383344</v>
+        <v>30144.383344000002</v>
       </c>
       <c r="AF21" s="1">
-        <v>8.373440</v>
+        <v>8.3734400000000004</v>
       </c>
       <c r="AG21" s="1">
-        <v>1362.860000</v>
+        <v>1362.86</v>
       </c>
       <c r="AH21" s="1">
-        <v>-178.544000</v>
+        <v>-178.54400000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>30154.605923</v>
+        <v>30154.605922999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>8.376279</v>
+        <v>8.3762790000000003</v>
       </c>
       <c r="AL21" s="1">
-        <v>1383.410000</v>
+        <v>1383.41</v>
       </c>
       <c r="AM21" s="1">
-        <v>-208.392000</v>
+        <v>-208.392</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>30165.217301</v>
+        <v>30165.217301000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>8.379227</v>
+        <v>8.3792270000000002</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1404.990000</v>
+        <v>1404.99</v>
       </c>
       <c r="AR21" s="1">
-        <v>-252.154000</v>
+        <v>-252.154</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>30175.945766</v>
+        <v>30175.945766000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>8.382207</v>
+        <v>8.3822069999999993</v>
       </c>
       <c r="AV21" s="1">
-        <v>1429.530000</v>
+        <v>1429.53</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.102000</v>
+        <v>-312.10199999999998</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>30186.898920</v>
+        <v>30186.89892</v>
       </c>
       <c r="AZ21" s="1">
-        <v>8.385250</v>
+        <v>8.3852499999999992</v>
       </c>
       <c r="BA21" s="1">
-        <v>1448.800000</v>
+        <v>1448.8</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.128000</v>
+        <v>-364.12799999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>30198.349064</v>
+        <v>30198.349064000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>8.388430</v>
+        <v>8.3884299999999996</v>
       </c>
       <c r="BF21" s="1">
-        <v>1533.770000</v>
+        <v>1533.77</v>
       </c>
       <c r="BG21" s="1">
-        <v>-612.130000</v>
+        <v>-612.13</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>30209.721835</v>
       </c>
       <c r="BJ21" s="1">
-        <v>8.391589</v>
+        <v>8.3915889999999997</v>
       </c>
       <c r="BK21" s="1">
-        <v>1687.440000</v>
+        <v>1687.44</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1057.200000</v>
+        <v>-1057.2</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>30220.679488</v>
+        <v>30220.679488000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>8.394633</v>
+        <v>8.3946330000000007</v>
       </c>
       <c r="BP21" s="1">
-        <v>1980.730000</v>
+        <v>1980.73</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1828.540000</v>
+        <v>-1828.54</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>30231.315661</v>
+        <v>30231.315661000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>8.397588</v>
+        <v>8.3975880000000007</v>
       </c>
       <c r="BU21" s="1">
-        <v>2367.480000</v>
+        <v>2367.48</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2722.480000</v>
+        <v>-2722.48</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>30242.457792</v>
+        <v>30242.457792000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>8.400683</v>
+        <v>8.4006830000000008</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2850.540000</v>
+        <v>2850.54</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3693.100000</v>
+        <v>-3693.1</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>30255.396925</v>
+        <v>30255.396925000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>8.404277</v>
+        <v>8.4042770000000004</v>
       </c>
       <c r="CE21" s="1">
-        <v>4282.780000</v>
+        <v>4282.78</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6035.780000</v>
+        <v>-6035.78</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>30082.326385</v>
       </c>
       <c r="B22" s="1">
-        <v>8.356202</v>
+        <v>8.3562019999999997</v>
       </c>
       <c r="C22" s="1">
-        <v>1248.110000</v>
+        <v>1248.1099999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-308.841000</v>
+        <v>-308.84100000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>30092.756788</v>
+        <v>30092.756787999999</v>
       </c>
       <c r="G22" s="1">
-        <v>8.359099</v>
+        <v>8.3590990000000005</v>
       </c>
       <c r="H22" s="1">
-        <v>1273.250000</v>
+        <v>1273.25</v>
       </c>
       <c r="I22" s="1">
-        <v>-265.855000</v>
+        <v>-265.85500000000002</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>30103.272439</v>
       </c>
       <c r="L22" s="1">
-        <v>8.362020</v>
+        <v>8.3620199999999993</v>
       </c>
       <c r="M22" s="1">
-        <v>1308.020000</v>
+        <v>1308.02</v>
       </c>
       <c r="N22" s="1">
-        <v>-202.853000</v>
+        <v>-202.85300000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>30113.836232</v>
+        <v>30113.836232000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>8.364955</v>
+        <v>8.3649550000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1319.940000</v>
+        <v>1319.94</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.826000</v>
+        <v>-184.82599999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>30124.012187</v>
       </c>
       <c r="V22" s="1">
-        <v>8.367781</v>
+        <v>8.3677810000000008</v>
       </c>
       <c r="W22" s="1">
-        <v>1332.920000</v>
+        <v>1332.92</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.127000</v>
+        <v>-171.12700000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>30134.595293</v>
+        <v>30134.595292999998</v>
       </c>
       <c r="AA22" s="1">
-        <v>8.370721</v>
+        <v>8.3707209999999996</v>
       </c>
       <c r="AB22" s="1">
-        <v>1349.970000</v>
+        <v>1349.97</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.046000</v>
+        <v>-169.04599999999999</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>30144.740959</v>
+        <v>30144.740958999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>8.373539</v>
+        <v>8.3735389999999992</v>
       </c>
       <c r="AG22" s="1">
-        <v>1362.780000</v>
+        <v>1362.78</v>
       </c>
       <c r="AH22" s="1">
-        <v>-178.501000</v>
+        <v>-178.501</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>30154.988803</v>
       </c>
       <c r="AK22" s="1">
-        <v>8.376386</v>
+        <v>8.3763860000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1383.410000</v>
+        <v>1383.41</v>
       </c>
       <c r="AM22" s="1">
-        <v>-208.373000</v>
+        <v>-208.37299999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>30165.576437</v>
@@ -5741,936 +6157,936 @@
         <v>8.379327</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1404.970000</v>
+        <v>1404.97</v>
       </c>
       <c r="AR22" s="1">
-        <v>-252.179000</v>
+        <v>-252.179</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>30176.311815</v>
+        <v>30176.311815000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>8.382309</v>
+        <v>8.3823089999999993</v>
       </c>
       <c r="AV22" s="1">
-        <v>1429.540000</v>
+        <v>1429.54</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.095000</v>
+        <v>-312.09500000000003</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>30187.280344</v>
+        <v>30187.280343999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>8.385356</v>
+        <v>8.3853559999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>1448.860000</v>
+        <v>1448.86</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.102000</v>
+        <v>-364.10199999999998</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>30198.773640</v>
+        <v>30198.773639999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>8.388548</v>
+        <v>8.3885480000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1533.740000</v>
+        <v>1533.74</v>
       </c>
       <c r="BG22" s="1">
-        <v>-612.196000</v>
+        <v>-612.19600000000003</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>30210.254040</v>
+        <v>30210.25404</v>
       </c>
       <c r="BJ22" s="1">
-        <v>8.391737</v>
+        <v>8.3917369999999991</v>
       </c>
       <c r="BK22" s="1">
-        <v>1687.440000</v>
+        <v>1687.44</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1057.140000</v>
+        <v>-1057.1400000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>30221.069314</v>
       </c>
       <c r="BO22" s="1">
-        <v>8.394741</v>
+        <v>8.3947409999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1980.680000</v>
+        <v>1980.68</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1828.690000</v>
+        <v>-1828.69</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>30231.743249</v>
+        <v>30231.743248999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>8.397706</v>
+        <v>8.3977059999999994</v>
       </c>
       <c r="BU22" s="1">
-        <v>2367.640000</v>
+        <v>2367.64</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2722.290000</v>
+        <v>-2722.29</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>30242.899268</v>
+        <v>30242.899268000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>8.400805</v>
+        <v>8.4008050000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2850.590000</v>
+        <v>2850.59</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3692.420000</v>
+        <v>-3692.42</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>30255.938558</v>
+        <v>30255.938558000002</v>
       </c>
       <c r="CD22" s="1">
-        <v>8.404427</v>
+        <v>8.4044270000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4263.960000</v>
+        <v>4263.96</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6033.820000</v>
+        <v>-6033.82</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>30082.669345</v>
+        <v>30082.669344999998</v>
       </c>
       <c r="B23" s="1">
-        <v>8.356297</v>
+        <v>8.3562969999999996</v>
       </c>
       <c r="C23" s="1">
-        <v>1247.840000</v>
+        <v>1247.8399999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-308.866000</v>
+        <v>-308.86599999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>30093.108421</v>
+        <v>30093.108421000001</v>
       </c>
       <c r="G23" s="1">
         <v>8.359197</v>
       </c>
       <c r="H23" s="1">
-        <v>1272.920000</v>
+        <v>1272.92</v>
       </c>
       <c r="I23" s="1">
-        <v>-265.491000</v>
+        <v>-265.49099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>30103.615207</v>
+        <v>30103.615206999999</v>
       </c>
       <c r="L23" s="1">
-        <v>8.362115</v>
+        <v>8.3621149999999993</v>
       </c>
       <c r="M23" s="1">
-        <v>1308.720000</v>
+        <v>1308.72</v>
       </c>
       <c r="N23" s="1">
-        <v>-203.252000</v>
+        <v>-203.25200000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>30114.491943</v>
+        <v>30114.491943000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>8.365137</v>
+        <v>8.3651370000000007</v>
       </c>
       <c r="R23" s="1">
-        <v>1320.040000</v>
+        <v>1320.04</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.743000</v>
+        <v>-184.74299999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>30124.677291</v>
       </c>
       <c r="V23" s="1">
-        <v>8.367966</v>
+        <v>8.3679659999999991</v>
       </c>
       <c r="W23" s="1">
-        <v>1332.940000</v>
+        <v>1332.94</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.169000</v>
+        <v>-171.16900000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>30134.982668</v>
+        <v>30134.982668000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>8.370829</v>
+        <v>8.3708290000000005</v>
       </c>
       <c r="AB23" s="1">
-        <v>1349.900000</v>
+        <v>1349.9</v>
       </c>
       <c r="AC23" s="1">
-        <v>-168.809000</v>
+        <v>-168.809</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>30145.091135</v>
+        <v>30145.091134999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>8.373636</v>
+        <v>8.3736359999999994</v>
       </c>
       <c r="AG23" s="1">
-        <v>1362.890000</v>
+        <v>1362.89</v>
       </c>
       <c r="AH23" s="1">
-        <v>-178.495000</v>
+        <v>-178.495</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>30155.336993</v>
+        <v>30155.336993000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>8.376482</v>
+        <v>8.3764819999999993</v>
       </c>
       <c r="AL23" s="1">
-        <v>1383.410000</v>
+        <v>1383.41</v>
       </c>
       <c r="AM23" s="1">
-        <v>-208.385000</v>
+        <v>-208.38499999999999</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>30165.936499</v>
+        <v>30165.936498999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>8.379427</v>
+        <v>8.3794269999999997</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1405.030000</v>
+        <v>1405.03</v>
       </c>
       <c r="AR23" s="1">
-        <v>-252.175000</v>
+        <v>-252.17500000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>30176.675913</v>
+        <v>30176.675912999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>8.382410</v>
+        <v>8.3824100000000001</v>
       </c>
       <c r="AV23" s="1">
-        <v>1429.550000</v>
+        <v>1429.55</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.095000</v>
+        <v>-312.09500000000003</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>30187.695495</v>
       </c>
       <c r="AZ23" s="1">
-        <v>8.385471</v>
+        <v>8.3854710000000008</v>
       </c>
       <c r="BA23" s="1">
-        <v>1448.830000</v>
+        <v>1448.83</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.123000</v>
+        <v>-364.12299999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>30199.070776</v>
       </c>
       <c r="BE23" s="1">
-        <v>8.388631</v>
+        <v>8.3886310000000002</v>
       </c>
       <c r="BF23" s="1">
-        <v>1533.770000</v>
+        <v>1533.77</v>
       </c>
       <c r="BG23" s="1">
-        <v>-612.191000</v>
+        <v>-612.19100000000003</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>30210.503528</v>
+        <v>30210.503528000001</v>
       </c>
       <c r="BJ23" s="1">
         <v>8.391807</v>
       </c>
       <c r="BK23" s="1">
-        <v>1687.470000</v>
+        <v>1687.47</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1057.180000</v>
+        <v>-1057.18</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>30221.491898</v>
       </c>
       <c r="BO23" s="1">
-        <v>8.394859</v>
+        <v>8.3948590000000003</v>
       </c>
       <c r="BP23" s="1">
-        <v>1980.730000</v>
+        <v>1980.73</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1828.640000</v>
+        <v>-1828.64</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>30232.155884</v>
       </c>
       <c r="BT23" s="1">
-        <v>8.397821</v>
+        <v>8.3978210000000004</v>
       </c>
       <c r="BU23" s="1">
-        <v>2367.410000</v>
+        <v>2367.41</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2722.280000</v>
+        <v>-2722.28</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>30243.657613</v>
+        <v>30243.657612999999</v>
       </c>
       <c r="BY23" s="1">
-        <v>8.401016</v>
+        <v>8.4010160000000003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2849.990000</v>
+        <v>2849.99</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3692.890000</v>
+        <v>-3692.89</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>30256.475755</v>
+        <v>30256.475754999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>8.404577</v>
+        <v>8.4045769999999997</v>
       </c>
       <c r="CE23" s="1">
-        <v>4273.080000</v>
+        <v>4273.08</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6049.490000</v>
+        <v>-6049.49</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>30083.011361</v>
+        <v>30083.011361000001</v>
       </c>
       <c r="B24" s="1">
-        <v>8.356392</v>
+        <v>8.3563919999999996</v>
       </c>
       <c r="C24" s="1">
-        <v>1247.800000</v>
+        <v>1247.8</v>
       </c>
       <c r="D24" s="1">
-        <v>-308.472000</v>
+        <v>-308.47199999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>30093.442723</v>
       </c>
       <c r="G24" s="1">
-        <v>8.359290</v>
+        <v>8.3592899999999997</v>
       </c>
       <c r="H24" s="1">
-        <v>1273.180000</v>
+        <v>1273.18</v>
       </c>
       <c r="I24" s="1">
-        <v>-267.179000</v>
+        <v>-267.17899999999997</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>30104.273861</v>
+        <v>30104.273861000001</v>
       </c>
       <c r="L24" s="1">
-        <v>8.362298</v>
+        <v>8.3622979999999991</v>
       </c>
       <c r="M24" s="1">
-        <v>1307.940000</v>
+        <v>1307.94</v>
       </c>
       <c r="N24" s="1">
-        <v>-202.993000</v>
+        <v>-202.99299999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>30114.881799</v>
+        <v>30114.881798999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>8.365245</v>
+        <v>8.3652449999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>1320.070000</v>
+        <v>1320.07</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.863000</v>
+        <v>-184.863</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>30125.043833</v>
       </c>
       <c r="V24" s="1">
-        <v>8.368068</v>
+        <v>8.3680679999999992</v>
       </c>
       <c r="W24" s="1">
-        <v>1332.940000</v>
+        <v>1332.94</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.198000</v>
+        <v>-171.19800000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>30135.332844</v>
       </c>
       <c r="AA24" s="1">
-        <v>8.370926</v>
+        <v>8.3709260000000008</v>
       </c>
       <c r="AB24" s="1">
-        <v>1349.870000</v>
+        <v>1349.87</v>
       </c>
       <c r="AC24" s="1">
-        <v>-168.793000</v>
+        <v>-168.79300000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>30145.430928</v>
+        <v>30145.430928000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>8.373731</v>
+        <v>8.3737309999999994</v>
       </c>
       <c r="AG24" s="1">
-        <v>1362.820000</v>
+        <v>1362.82</v>
       </c>
       <c r="AH24" s="1">
-        <v>-178.502000</v>
+        <v>-178.50200000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>30155.683699</v>
+        <v>30155.683699000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>8.376579</v>
+        <v>8.3765789999999996</v>
       </c>
       <c r="AL24" s="1">
-        <v>1383.430000</v>
+        <v>1383.43</v>
       </c>
       <c r="AM24" s="1">
-        <v>-208.386000</v>
+        <v>-208.386</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>30166.361774</v>
+        <v>30166.361774000001</v>
       </c>
       <c r="AP24" s="1">
-        <v>8.379545</v>
+        <v>8.3795450000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1404.990000</v>
+        <v>1404.99</v>
       </c>
       <c r="AR24" s="1">
-        <v>-252.191000</v>
+        <v>-252.191</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>30177.177829</v>
       </c>
       <c r="AU24" s="1">
-        <v>8.382549</v>
+        <v>8.3825489999999991</v>
       </c>
       <c r="AV24" s="1">
-        <v>1429.530000</v>
+        <v>1429.53</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.098000</v>
+        <v>-312.09800000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>30187.997592</v>
       </c>
       <c r="AZ24" s="1">
-        <v>8.385555</v>
+        <v>8.3855550000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1448.820000</v>
+        <v>1448.82</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.167000</v>
+        <v>-364.16699999999997</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>30199.434343</v>
+        <v>30199.434343000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>8.388732</v>
+        <v>8.3887319999999992</v>
       </c>
       <c r="BF24" s="1">
-        <v>1533.710000</v>
+        <v>1533.71</v>
       </c>
       <c r="BG24" s="1">
-        <v>-612.230000</v>
+        <v>-612.23</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>30210.877543</v>
+        <v>30210.877542999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>8.391910</v>
+        <v>8.3919099999999993</v>
       </c>
       <c r="BK24" s="1">
-        <v>1687.490000</v>
+        <v>1687.49</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1057.080000</v>
+        <v>-1057.08</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>30221.887211</v>
+        <v>30221.887211000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>8.394969</v>
+        <v>8.3949689999999997</v>
       </c>
       <c r="BP24" s="1">
-        <v>1980.680000</v>
+        <v>1980.68</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1828.710000</v>
+        <v>-1828.71</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>30232.585419</v>
+        <v>30232.585418999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>8.397940</v>
+        <v>8.3979400000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>2367.280000</v>
+        <v>2367.2800000000002</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2722.140000</v>
+        <v>-2722.14</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>30243.769244</v>
+        <v>30243.769243999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>8.401047</v>
+        <v>8.4010470000000002</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2850.130000</v>
+        <v>2850.13</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3693.360000</v>
+        <v>-3693.36</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>30257.015904</v>
       </c>
       <c r="CD24" s="1">
-        <v>8.404727</v>
+        <v>8.4047269999999994</v>
       </c>
       <c r="CE24" s="1">
-        <v>4274.950000</v>
+        <v>4274.95</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6027.010000</v>
+        <v>-6027.01</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>30083.672033</v>
+        <v>30083.672032999999</v>
       </c>
       <c r="B25" s="1">
-        <v>8.356576</v>
+        <v>8.3565760000000004</v>
       </c>
       <c r="C25" s="1">
-        <v>1247.810000</v>
+        <v>1247.81</v>
       </c>
       <c r="D25" s="1">
-        <v>-308.863000</v>
+        <v>-308.863</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>30094.110338</v>
+        <v>30094.110337999999</v>
       </c>
       <c r="G25" s="1">
-        <v>8.359475</v>
+        <v>8.3594749999999998</v>
       </c>
       <c r="H25" s="1">
-        <v>1273.090000</v>
+        <v>1273.0899999999999</v>
       </c>
       <c r="I25" s="1">
-        <v>-266.326000</v>
+        <v>-266.32600000000002</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>30104.659254</v>
+        <v>30104.659253999998</v>
       </c>
       <c r="L25" s="1">
-        <v>8.362405</v>
+        <v>8.3624050000000008</v>
       </c>
       <c r="M25" s="1">
-        <v>1308.080000</v>
+        <v>1308.08</v>
       </c>
       <c r="N25" s="1">
-        <v>-203.158000</v>
+        <v>-203.15799999999999</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>30115.232966</v>
       </c>
       <c r="Q25" s="1">
-        <v>8.365342</v>
+        <v>8.3653420000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1320.010000</v>
+        <v>1320.01</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.924000</v>
+        <v>-184.92400000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>30125.379625</v>
+        <v>30125.379625000001</v>
       </c>
       <c r="V25" s="1">
-        <v>8.368161</v>
+        <v>8.3681610000000006</v>
       </c>
       <c r="W25" s="1">
-        <v>1332.860000</v>
+        <v>1332.86</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.177000</v>
+        <v>-171.17699999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>30135.684011</v>
+        <v>30135.684011000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>8.371023</v>
+        <v>8.3710229999999992</v>
       </c>
       <c r="AB25" s="1">
-        <v>1350.090000</v>
+        <v>1350.09</v>
       </c>
       <c r="AC25" s="1">
-        <v>-168.941000</v>
+        <v>-168.941</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>30145.852494</v>
+        <v>30145.852493999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>8.373848</v>
+        <v>8.3738480000000006</v>
       </c>
       <c r="AG25" s="1">
-        <v>1362.860000</v>
+        <v>1362.86</v>
       </c>
       <c r="AH25" s="1">
-        <v>-178.509000</v>
+        <v>-178.50899999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>30156.102816</v>
+        <v>30156.102815999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>8.376695</v>
+        <v>8.3766949999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>1383.430000</v>
+        <v>1383.43</v>
       </c>
       <c r="AM25" s="1">
-        <v>-208.379000</v>
+        <v>-208.37899999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>30166.657714</v>
+        <v>30166.657714000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>8.379627</v>
+        <v>8.3796269999999993</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1405.010000</v>
+        <v>1405.01</v>
       </c>
       <c r="AR25" s="1">
-        <v>-252.174000</v>
+        <v>-252.17400000000001</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>30177.401560</v>
+        <v>30177.401559999998</v>
       </c>
       <c r="AU25" s="1">
         <v>8.382612</v>
       </c>
       <c r="AV25" s="1">
-        <v>1429.540000</v>
+        <v>1429.54</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.092000</v>
+        <v>-312.09199999999998</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>30188.355669</v>
       </c>
       <c r="AZ25" s="1">
-        <v>8.385654</v>
+        <v>8.3856540000000006</v>
       </c>
       <c r="BA25" s="1">
-        <v>1448.820000</v>
+        <v>1448.82</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.102000</v>
+        <v>-364.10199999999998</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>30199.790935</v>
+        <v>30199.790935000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>8.388831</v>
+        <v>8.3888309999999997</v>
       </c>
       <c r="BF25" s="1">
-        <v>1533.680000</v>
+        <v>1533.68</v>
       </c>
       <c r="BG25" s="1">
-        <v>-612.225000</v>
+        <v>-612.22500000000002</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>30211.629943</v>
       </c>
       <c r="BJ25" s="1">
-        <v>8.392119</v>
+        <v>8.3921189999999992</v>
       </c>
       <c r="BK25" s="1">
-        <v>1687.400000</v>
+        <v>1687.4</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1057.210000</v>
+        <v>-1057.21</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>30222.309838</v>
+        <v>30222.309838000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>8.395086</v>
+        <v>8.3950859999999992</v>
       </c>
       <c r="BP25" s="1">
-        <v>1980.710000</v>
+        <v>1980.71</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1828.540000</v>
+        <v>-1828.54</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>30233.015946</v>
       </c>
       <c r="BT25" s="1">
-        <v>8.398060</v>
+        <v>8.3980599999999992</v>
       </c>
       <c r="BU25" s="1">
-        <v>2367.460000</v>
+        <v>2367.46</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2722.480000</v>
+        <v>-2722.48</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>30244.194811</v>
+        <v>30244.194811000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>8.401165</v>
+        <v>8.4011650000000007</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2850.590000</v>
+        <v>2850.59</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3693.030000</v>
+        <v>-3693.03</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>30257.558490</v>
+        <v>30257.558489999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>8.404877</v>
+        <v>8.4048770000000008</v>
       </c>
       <c r="CE25" s="1">
-        <v>4261.100000</v>
+        <v>4261.1000000000004</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6044.810000</v>
+        <v>-6044.81</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>30084.037583</v>
+        <v>30084.037583000001</v>
       </c>
       <c r="B26" s="1">
-        <v>8.356677</v>
+        <v>8.3566769999999995</v>
       </c>
       <c r="C26" s="1">
-        <v>1247.680000</v>
+        <v>1247.68</v>
       </c>
       <c r="D26" s="1">
-        <v>-308.780000</v>
+        <v>-308.77999999999997</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>30094.485315</v>
+        <v>30094.485315000002</v>
       </c>
       <c r="G26" s="1">
-        <v>8.359579</v>
+        <v>8.3595790000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1272.500000</v>
+        <v>1272.5</v>
       </c>
       <c r="I26" s="1">
-        <v>-265.852000</v>
+        <v>-265.85199999999998</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>30105.001989</v>
@@ -6679,225 +7095,226 @@
         <v>8.362501</v>
       </c>
       <c r="M26" s="1">
-        <v>1308.260000</v>
+        <v>1308.26</v>
       </c>
       <c r="N26" s="1">
-        <v>-202.915000</v>
+        <v>-202.91499999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>30115.581158</v>
+        <v>30115.581158000001</v>
       </c>
       <c r="Q26" s="1">
-        <v>8.365439</v>
+        <v>8.3654390000000003</v>
       </c>
       <c r="R26" s="1">
-        <v>1319.970000</v>
+        <v>1319.97</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.823000</v>
+        <v>-184.82300000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>30125.732059</v>
+        <v>30125.732059000002</v>
       </c>
       <c r="V26" s="1">
-        <v>8.368259</v>
+        <v>8.3682590000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1332.870000</v>
+        <v>1332.87</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.185000</v>
+        <v>-171.185</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>30136.101643</v>
+        <v>30136.101643000002</v>
       </c>
       <c r="AA26" s="1">
-        <v>8.371139</v>
+        <v>8.3711389999999994</v>
       </c>
       <c r="AB26" s="1">
-        <v>1349.860000</v>
+        <v>1349.86</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.058000</v>
+        <v>-169.05799999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>30146.131278</v>
+        <v>30146.131278000001</v>
       </c>
       <c r="AF26" s="1">
-        <v>8.373925</v>
+        <v>8.3739249999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1362.830000</v>
+        <v>1362.83</v>
       </c>
       <c r="AH26" s="1">
-        <v>-178.530000</v>
+        <v>-178.53</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>30156.395456</v>
+        <v>30156.395455999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>8.376777</v>
+        <v>8.3767770000000006</v>
       </c>
       <c r="AL26" s="1">
-        <v>1383.460000</v>
+        <v>1383.46</v>
       </c>
       <c r="AM26" s="1">
-        <v>-208.348000</v>
+        <v>-208.34800000000001</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>30167.018274</v>
+        <v>30167.018273999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>8.379727</v>
+        <v>8.3797270000000008</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1405.030000</v>
+        <v>1405.03</v>
       </c>
       <c r="AR26" s="1">
-        <v>-252.176000</v>
+        <v>-252.17599999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>30177.769060</v>
+        <v>30177.769059999999</v>
       </c>
       <c r="AU26" s="1">
         <v>8.382714</v>
       </c>
       <c r="AV26" s="1">
-        <v>1429.530000</v>
+        <v>1429.53</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.024000</v>
+        <v>-312.024</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>30188.716791</v>
+        <v>30188.716790999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>8.385755</v>
+        <v>8.3857549999999996</v>
       </c>
       <c r="BA26" s="1">
-        <v>1448.760000</v>
+        <v>1448.76</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.073000</v>
+        <v>-364.07299999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>30200.516582</v>
       </c>
       <c r="BE26" s="1">
-        <v>8.389032</v>
+        <v>8.3890320000000003</v>
       </c>
       <c r="BF26" s="1">
-        <v>1533.680000</v>
+        <v>1533.68</v>
       </c>
       <c r="BG26" s="1">
-        <v>-612.152000</v>
+        <v>-612.15200000000004</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>30212.003927</v>
+        <v>30212.003927000002</v>
       </c>
       <c r="BJ26" s="1">
-        <v>8.392223</v>
+        <v>8.3922229999999995</v>
       </c>
       <c r="BK26" s="1">
-        <v>1687.500000</v>
+        <v>1687.5</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1057.140000</v>
+        <v>-1057.1400000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>30222.706105</v>
+        <v>30222.706105000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>8.395196</v>
+        <v>8.3951960000000003</v>
       </c>
       <c r="BP26" s="1">
-        <v>1980.750000</v>
+        <v>1980.75</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1828.740000</v>
+        <v>-1828.74</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>30233.427131</v>
       </c>
       <c r="BT26" s="1">
-        <v>8.398174</v>
+        <v>8.3981739999999991</v>
       </c>
       <c r="BU26" s="1">
-        <v>2367.260000</v>
+        <v>2367.2600000000002</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2722.280000</v>
+        <v>-2722.28</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>30244.938811</v>
       </c>
       <c r="BY26" s="1">
-        <v>8.401372</v>
+        <v>8.4013720000000003</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2850.110000</v>
+        <v>2850.11</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3692.560000</v>
+        <v>-3692.56</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>30258.407178</v>
+        <v>30258.407178000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>8.405113</v>
+        <v>8.4051130000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4268.510000</v>
+        <v>4268.51</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6026.890000</v>
+        <v>-6026.89</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>